--- a/Synthèse-Experiences/Hole_Size_Dosev3.xlsx
+++ b/Synthèse-Experiences/Hole_Size_Dosev3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="72">
   <si>
     <t>backside</t>
   </si>
@@ -284,12 +284,18 @@
   <si>
     <t>Mesure with SEM have been taken on two different days, and we observe a ~8nm difference for hole size between them. For one day all holes appear smaller. Is it a real change or due to settings ? We will only compare measures taken on the same day.</t>
   </si>
+  <si>
+    <t>20?m – 6.5pA (7)</t>
+  </si>
+  <si>
+    <t>Raith Measured Hole size for 30nm thin membrane</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,6 +382,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -571,7 +585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -670,6 +684,12 @@
     <xf numFmtId="2" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -679,14 +699,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1956,7 +1991,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2074,11 +2108,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199890432"/>
-        <c:axId val="199891968"/>
+        <c:axId val="213435904"/>
+        <c:axId val="213437440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199890432"/>
+        <c:axId val="213435904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2088,12 +2122,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199891968"/>
+        <c:crossAx val="213437440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199891968"/>
+        <c:axId val="213437440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2104,14 +2138,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199890432"/>
+        <c:crossAx val="213435904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2164,7 +2197,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2282,11 +2314,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199755264"/>
-        <c:axId val="199756800"/>
+        <c:axId val="215791104"/>
+        <c:axId val="215792640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199755264"/>
+        <c:axId val="215791104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2"/>
@@ -2297,12 +2329,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199756800"/>
+        <c:crossAx val="215792640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199756800"/>
+        <c:axId val="215792640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2313,14 +2345,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199755264"/>
+        <c:crossAx val="215791104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2386,7 +2417,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil2!$B$93:$B$96</c:f>
+              <c:f>Feuil2!$B$98:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2404,7 +2435,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil2!$F$93:$F$96</c:f>
+              <c:f>Feuil2!$F$98:$F$101</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2458,7 +2489,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil2!$B$93:$B$96</c:f>
+              <c:f>Feuil2!$B$98:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2476,7 +2507,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil2!$F$97:$F$99</c:f>
+              <c:f>Feuil2!$F$102:$F$104</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2530,7 +2561,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil2!$B$93:$B$96</c:f>
+              <c:f>Feuil2!$B$98:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2548,7 +2579,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil2!$F$101:$F$103</c:f>
+              <c:f>Feuil2!$F$106:$F$108</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2571,11 +2602,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199793664"/>
-        <c:axId val="199795840"/>
+        <c:axId val="215821312"/>
+        <c:axId val="215827584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199793664"/>
+        <c:axId val="215821312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2604,12 +2635,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199795840"/>
+        <c:crossAx val="215827584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199795840"/>
+        <c:axId val="215827584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2646,7 +2677,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199793664"/>
+        <c:crossAx val="215821312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2807,11 +2838,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199843840"/>
-        <c:axId val="199845760"/>
+        <c:axId val="216137728"/>
+        <c:axId val="216139648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199843840"/>
+        <c:axId val="216137728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2840,12 +2871,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199845760"/>
+        <c:crossAx val="216139648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199845760"/>
+        <c:axId val="216139648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -2877,7 +2908,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199843840"/>
+        <c:crossAx val="216137728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3407,11 +3438,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="17597952"/>
-        <c:axId val="17596416"/>
+        <c:axId val="216200704"/>
+        <c:axId val="216202624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="17597952"/>
+        <c:axId val="216200704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.2"/>
@@ -3446,12 +3477,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="17596416"/>
+        <c:crossAx val="216202624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="17596416"/>
+        <c:axId val="216202624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="40"/>
@@ -3482,7 +3513,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="17597952"/>
+        <c:crossAx val="216200704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3637,7 +3668,7 @@
       <xdr:col>23</xdr:col>
       <xdr:colOff>450917</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>95409</xdr:rowOff>
+      <xdr:rowOff>77479</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3685,13 +3716,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>726141</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>80682</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>681318</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>116541</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3715,13 +3746,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>735103</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>80681</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>53333</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3770,13 +3801,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>303521</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>180576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>93490</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>24334</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3800,13 +3831,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>261257</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>130629</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>147666</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>174172</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3861,7 +3892,7 @@
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>510639</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>86096</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3891,8 +3922,8 @@
     <xdr:to>
       <xdr:col>45</xdr:col>
       <xdr:colOff>27709</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>90799</xdr:rowOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>1152</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3917,6 +3948,66 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="19340945" y="13855"/>
+          <a:ext cx="12178146" cy="8472799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>27709</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>360218</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>7672</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11873345" y="0"/>
           <a:ext cx="12178146" cy="8472799"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3979,8 +4070,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A92:G104" totalsRowShown="0">
-  <autoFilter ref="A92:G104">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A97:G109" totalsRowShown="0">
+  <autoFilter ref="A97:G109">
     <filterColumn colId="0">
       <filters>
         <filter val="77"/>
@@ -4304,7 +4395,7 @@
       <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.44140625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -4317,13 +4408,13 @@
     <col min="10" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G1" s="40" t="s">
+    <row r="1" spans="1:16" ht="15.6">
+      <c r="G1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="41"/>
-    </row>
-    <row r="2" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H1" s="43"/>
+    </row>
+    <row r="2" spans="1:16" ht="16.2" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -4355,7 +4446,7 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:16" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="16.2" thickTop="1">
       <c r="A3" s="1">
         <v>31</v>
       </c>
@@ -4385,7 +4476,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="15.6">
       <c r="A4" s="1">
         <v>31</v>
       </c>
@@ -4415,7 +4506,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15.6">
       <c r="A5" s="1">
         <v>31</v>
       </c>
@@ -4445,7 +4536,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="15.6">
       <c r="A6" s="1">
         <v>31</v>
       </c>
@@ -4475,7 +4566,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15.6">
       <c r="A7" s="1">
         <v>31</v>
       </c>
@@ -4505,7 +4596,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="15.6">
       <c r="A8" s="1">
         <v>31</v>
       </c>
@@ -4535,7 +4626,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15.6">
       <c r="A9" s="1">
         <v>31</v>
       </c>
@@ -4565,7 +4656,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="15.6">
       <c r="A10" s="1">
         <v>31</v>
       </c>
@@ -4595,7 +4686,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="15.6">
       <c r="A11" s="1">
         <v>31</v>
       </c>
@@ -4625,7 +4716,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="15.6">
       <c r="A12" s="1">
         <v>31</v>
       </c>
@@ -4655,7 +4746,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="15.6">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -4671,7 +4762,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="15.6">
       <c r="A14" s="1">
         <v>31</v>
       </c>
@@ -4704,7 +4795,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="15.6">
       <c r="A15" s="1">
         <v>31</v>
       </c>
@@ -4740,7 +4831,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="15.6">
       <c r="A16" s="1">
         <v>32</v>
       </c>
@@ -4776,7 +4867,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="15.6">
       <c r="A17" s="1">
         <v>32</v>
       </c>
@@ -4804,7 +4895,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="15.6">
       <c r="A18" s="1">
         <v>33</v>
       </c>
@@ -4840,7 +4931,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="15.6">
       <c r="A19" s="1">
         <v>33</v>
       </c>
@@ -4876,7 +4967,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="15.6">
       <c r="A20" s="1">
         <v>33</v>
       </c>
@@ -4912,7 +5003,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="15.6">
       <c r="A21" s="1">
         <v>34</v>
       </c>
@@ -4948,7 +5039,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="15.6">
       <c r="A22" s="1">
         <v>34</v>
       </c>
@@ -4984,7 +5075,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="15.6">
       <c r="A23" s="3">
         <v>34</v>
       </c>
@@ -5020,7 +5111,7 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
     </row>
-    <row r="28" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="15.6">
       <c r="A28" s="1">
         <v>31</v>
       </c>
@@ -5056,7 +5147,7 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="15.6">
       <c r="A29" s="1">
         <v>31</v>
       </c>
@@ -5086,7 +5177,7 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="15.6">
       <c r="A30" s="1">
         <v>31</v>
       </c>
@@ -5122,7 +5213,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="15.6">
       <c r="A31" s="1">
         <v>32</v>
       </c>
@@ -5158,7 +5249,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="15.6">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -5186,7 +5277,7 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="15.6">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -5222,7 +5313,7 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="15.6">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5258,7 +5349,7 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="15.6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -5294,7 +5385,7 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="15.6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -5330,7 +5421,7 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="15.6">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -5366,7 +5457,7 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="15.6">
       <c r="A38" s="3">
         <v>34</v>
       </c>
@@ -5402,7 +5493,7 @@
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -5413,7 +5504,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -5439,7 +5530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>37</v>
       </c>
@@ -5474,7 +5565,7 @@
         <v>57.17</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
         <v>35</v>
       </c>
@@ -5500,7 +5591,7 @@
         <v>53.26</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14">
       <c r="H51" s="30">
         <v>12</v>
       </c>
@@ -5523,7 +5614,7 @@
         <v>57.26</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14">
       <c r="A52" s="31" t="s">
         <v>44</v>
       </c>
@@ -5564,7 +5655,7 @@
         <v>58.34</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14">
       <c r="A53" s="29">
         <v>1</v>
       </c>
@@ -5607,7 +5698,7 @@
         <v>4.9698250000000082</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14">
       <c r="A54" s="29">
         <v>2</v>
       </c>
@@ -5650,7 +5741,7 @@
         <v>56.5075</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14">
       <c r="A55" s="29">
         <v>3</v>
       </c>
@@ -5670,7 +5761,7 @@
         <v>58.7</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14">
       <c r="A56" s="29">
         <v>4</v>
       </c>
@@ -5690,7 +5781,7 @@
         <v>58.6</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14">
       <c r="A57" s="29">
         <v>5</v>
       </c>
@@ -5710,7 +5801,7 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -5719,7 +5810,7 @@
         <v>14.968433333333328</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
         <v>43</v>
       </c>
@@ -5743,16 +5834,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V124"/>
+  <dimension ref="A1:V129"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q104" sqref="Q104"/>
+      <selection pane="bottomRight" activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.21875" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
@@ -5771,16 +5862,16 @@
     <col min="17" max="18" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="J1" s="40" t="s">
+    <row r="1" spans="1:15" ht="15.6">
+      <c r="J1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="41"/>
+      <c r="K1" s="43"/>
       <c r="L1" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="16.2" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -5827,7 +5918,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="16.2" hidden="1" thickTop="1">
       <c r="A3" s="1">
         <v>31</v>
       </c>
@@ -5877,7 +5968,7 @@
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="16.2" hidden="1" thickTop="1">
       <c r="A4" s="1">
         <v>31</v>
       </c>
@@ -5927,7 +6018,7 @@
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="16.2" hidden="1" thickTop="1">
       <c r="A5" s="1">
         <v>31</v>
       </c>
@@ -5977,7 +6068,7 @@
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="16.2" hidden="1" thickTop="1">
       <c r="A6" s="1">
         <v>32</v>
       </c>
@@ -6027,7 +6118,7 @@
         <v>0.59699999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="16.2" hidden="1" thickTop="1">
       <c r="A7" s="1">
         <v>32</v>
       </c>
@@ -6077,7 +6168,7 @@
         <v>0.59699999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="16.2" hidden="1" thickTop="1">
       <c r="A8" s="1">
         <v>32</v>
       </c>
@@ -6127,7 +6218,7 @@
         <v>0.59699999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="16.2" hidden="1" thickTop="1">
       <c r="A9" s="1">
         <v>32</v>
       </c>
@@ -6177,7 +6268,7 @@
         <v>0.59699999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="16.2" hidden="1" thickTop="1">
       <c r="A10" s="1">
         <v>32</v>
       </c>
@@ -6227,7 +6318,7 @@
         <v>0.59699999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="16.2" hidden="1" thickTop="1">
       <c r="A11" s="1">
         <v>31</v>
       </c>
@@ -6277,7 +6368,7 @@
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="16.2" hidden="1" thickTop="1">
       <c r="A12" s="1">
         <v>31</v>
       </c>
@@ -6327,7 +6418,7 @@
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="16.2" hidden="1" thickTop="1">
       <c r="A13" s="3">
         <v>33</v>
       </c>
@@ -6377,7 +6468,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="16.2" hidden="1" thickTop="1">
       <c r="A14" s="3">
         <v>33</v>
       </c>
@@ -6427,7 +6518,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="16.2" hidden="1" thickTop="1">
       <c r="A15" s="3">
         <v>33</v>
       </c>
@@ -6475,7 +6566,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="16.2" hidden="1" thickTop="1">
       <c r="A16" s="3">
         <v>33</v>
       </c>
@@ -6525,7 +6616,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15" hidden="1" customHeight="1">
       <c r="A17" s="1">
         <v>33</v>
       </c>
@@ -6575,7 +6666,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="16.2" hidden="1" thickTop="1">
       <c r="A18" s="1">
         <v>33</v>
       </c>
@@ -6628,7 +6719,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="16.2" hidden="1" thickTop="1">
       <c r="A19" s="1">
         <v>34</v>
       </c>
@@ -6678,7 +6769,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="16.2" hidden="1" thickTop="1">
       <c r="A20" s="1">
         <v>34</v>
       </c>
@@ -6728,7 +6819,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="16.2" hidden="1" thickTop="1">
       <c r="A21" s="1">
         <v>33</v>
       </c>
@@ -6776,7 +6867,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="16.2" hidden="1" thickTop="1">
       <c r="A22" s="1">
         <v>33</v>
       </c>
@@ -6826,7 +6917,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="16.2" hidden="1" thickTop="1">
       <c r="A23" s="1">
         <v>34</v>
       </c>
@@ -6876,7 +6967,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="16.2" hidden="1" thickTop="1">
       <c r="A24" s="1">
         <v>33</v>
       </c>
@@ -6926,7 +7017,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="16.2" hidden="1" thickTop="1">
       <c r="A25" s="3">
         <v>31</v>
       </c>
@@ -6974,7 +7065,7 @@
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="16.2" hidden="1" thickTop="1">
       <c r="A26" s="3">
         <v>33</v>
       </c>
@@ -7024,7 +7115,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="16.2" hidden="1" thickTop="1">
       <c r="A27" s="3">
         <v>34</v>
       </c>
@@ -7074,7 +7165,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="16.2" hidden="1" thickTop="1">
       <c r="A28" s="3">
         <v>34</v>
       </c>
@@ -7124,7 +7215,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="16.2" hidden="1" thickTop="1">
       <c r="A29" s="1">
         <v>33</v>
       </c>
@@ -7174,7 +7265,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="16.2" hidden="1" thickTop="1">
       <c r="A30" s="1">
         <v>34</v>
       </c>
@@ -7224,7 +7315,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="16.2" hidden="1" thickTop="1">
       <c r="A31" s="1">
         <v>34</v>
       </c>
@@ -7274,7 +7365,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="16.2" hidden="1" thickTop="1">
       <c r="A32" s="1">
         <v>34</v>
       </c>
@@ -7324,7 +7415,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" ht="16.2" hidden="1" thickTop="1">
       <c r="A33" s="1">
         <v>34</v>
       </c>
@@ -7374,7 +7465,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" ht="16.2" hidden="1" thickTop="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -7424,7 +7515,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" ht="16.2" hidden="1" thickTop="1">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -7471,17 +7562,17 @@
       <c r="O35" s="14">
         <v>0.45800000000000002</v>
       </c>
-      <c r="P35" s="42" t="s">
+      <c r="P35" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Q35" s="42"/>
-      <c r="R35" s="42"/>
-      <c r="S35" s="42"/>
-      <c r="T35" s="42"/>
-      <c r="U35" s="42"/>
-      <c r="V35" s="42"/>
-    </row>
-    <row r="36" spans="1:22" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="Q35" s="44"/>
+      <c r="R35" s="44"/>
+      <c r="S35" s="44"/>
+      <c r="T35" s="44"/>
+      <c r="U35" s="44"/>
+      <c r="V35" s="44"/>
+    </row>
+    <row r="36" spans="1:22" ht="16.2" hidden="1" thickTop="1">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -7531,7 +7622,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" ht="16.2" hidden="1" thickTop="1">
       <c r="A37" s="3">
         <v>31</v>
       </c>
@@ -7579,7 +7670,7 @@
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" ht="16.2" hidden="1" thickTop="1">
       <c r="A38" s="3">
         <v>31</v>
       </c>
@@ -7627,7 +7718,7 @@
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" ht="16.2" hidden="1" thickTop="1">
       <c r="A39" s="3">
         <v>31</v>
       </c>
@@ -7675,7 +7766,7 @@
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" ht="16.2" hidden="1" thickTop="1">
       <c r="A40" s="3">
         <v>31</v>
       </c>
@@ -7723,7 +7814,7 @@
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" ht="16.2" hidden="1" thickTop="1">
       <c r="A41" s="1">
         <v>78</v>
       </c>
@@ -7776,7 +7867,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" ht="16.2" hidden="1" thickTop="1">
       <c r="A42" s="1">
         <v>78</v>
       </c>
@@ -7831,7 +7922,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" ht="16.2" hidden="1" thickTop="1">
       <c r="A43" s="1">
         <v>78</v>
       </c>
@@ -7884,7 +7975,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" ht="16.2" hidden="1" thickTop="1">
       <c r="A44" s="1">
         <v>76</v>
       </c>
@@ -7937,7 +8028,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" ht="16.2" hidden="1" thickTop="1">
       <c r="A45" s="1">
         <v>76</v>
       </c>
@@ -7987,7 +8078,7 @@
         <v>6.3520000000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" ht="16.2" hidden="1" thickTop="1">
       <c r="A46" s="1">
         <v>76</v>
       </c>
@@ -8037,7 +8128,7 @@
         <v>6.3520000000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" ht="16.2" hidden="1" thickTop="1">
       <c r="A47" s="1">
         <v>77</v>
       </c>
@@ -8087,7 +8178,7 @@
         <v>6.24</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" ht="16.2" hidden="1" thickTop="1">
       <c r="A48" s="1">
         <v>76</v>
       </c>
@@ -8137,7 +8228,7 @@
         <v>6.3520000000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" ht="16.2" hidden="1" thickTop="1">
       <c r="A49" s="1">
         <v>76</v>
       </c>
@@ -8191,7 +8282,7 @@
         <v>59.724850000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" ht="16.2" hidden="1" thickTop="1">
       <c r="A50" s="1">
         <v>76</v>
       </c>
@@ -8241,7 +8332,7 @@
         <v>6.3520000000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" ht="16.2" hidden="1" thickTop="1">
       <c r="A51" s="1">
         <v>76</v>
       </c>
@@ -8291,7 +8382,7 @@
         <v>6.3520000000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" ht="16.2" hidden="1" thickTop="1">
       <c r="A52" s="3">
         <v>77</v>
       </c>
@@ -8341,7 +8432,7 @@
         <v>6.24</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" ht="16.2" hidden="1" thickTop="1">
       <c r="A53" s="3">
         <v>77</v>
       </c>
@@ -8391,7 +8482,7 @@
         <v>6.24</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" ht="16.2" hidden="1" thickTop="1">
       <c r="A54" s="1">
         <v>79</v>
       </c>
@@ -8441,7 +8532,7 @@
         <v>6.26</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" ht="16.2" hidden="1" thickTop="1">
       <c r="A55" s="1">
         <v>79</v>
       </c>
@@ -8491,7 +8582,7 @@
         <v>6.26</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="16.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" ht="16.2" hidden="1" thickTop="1">
       <c r="A56" s="22">
         <v>79</v>
       </c>
@@ -8542,7 +8633,7 @@
         <v>6.26</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" ht="16.2" thickTop="1">
       <c r="A57" s="22">
         <v>79</v>
       </c>
@@ -8552,19 +8643,19 @@
       <c r="C57" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D57" s="43" t="s">
+      <c r="D57" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="E57" s="43">
+      <c r="E57" s="40">
         <v>0.7</v>
       </c>
-      <c r="F57" s="43">
+      <c r="F57" s="40">
         <v>0.6</v>
       </c>
-      <c r="G57" s="43">
+      <c r="G57" s="40">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H57" s="43">
+      <c r="H57" s="40">
         <v>200</v>
       </c>
       <c r="I57" s="37">
@@ -8591,7 +8682,7 @@
         <v>6.26</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" ht="15.6">
       <c r="A58" s="36">
         <v>79</v>
       </c>
@@ -8601,19 +8692,19 @@
       <c r="C58" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D58" s="43" t="s">
+      <c r="D58" s="40" t="s">
         <v>66</v>
       </c>
       <c r="E58" s="26">
         <v>0.8</v>
       </c>
-      <c r="F58" s="43">
+      <c r="F58" s="40">
         <v>0.6</v>
       </c>
-      <c r="G58" s="43">
+      <c r="G58" s="40">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H58" s="43">
+      <c r="H58" s="40">
         <v>200</v>
       </c>
       <c r="I58" s="37">
@@ -8639,7 +8730,7 @@
         <v>6.26</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" ht="15.6">
       <c r="A59" s="36">
         <v>79</v>
       </c>
@@ -8649,19 +8740,19 @@
       <c r="C59" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D59" s="43" t="s">
+      <c r="D59" s="40" t="s">
         <v>66</v>
       </c>
       <c r="E59" s="26">
         <v>0.9</v>
       </c>
-      <c r="F59" s="43">
+      <c r="F59" s="40">
         <v>0.6</v>
       </c>
-      <c r="G59" s="43">
+      <c r="G59" s="40">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H59" s="43">
+      <c r="H59" s="40">
         <v>200</v>
       </c>
       <c r="I59" s="37">
@@ -8687,7 +8778,7 @@
         <v>6.26</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" ht="15.6">
       <c r="A60" s="36">
         <v>79</v>
       </c>
@@ -8697,19 +8788,19 @@
       <c r="C60" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D60" s="43" t="s">
+      <c r="D60" s="40" t="s">
         <v>66</v>
       </c>
       <c r="E60" s="26">
         <v>1</v>
       </c>
-      <c r="F60" s="43">
+      <c r="F60" s="40">
         <v>0.6</v>
       </c>
-      <c r="G60" s="43">
+      <c r="G60" s="40">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H60" s="43">
+      <c r="H60" s="40">
         <v>200</v>
       </c>
       <c r="I60" s="37">
@@ -8736,7 +8827,7 @@
         <v>6.26</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" ht="15.6">
       <c r="A61" s="36">
         <v>79</v>
       </c>
@@ -8746,19 +8837,19 @@
       <c r="C61" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D61" s="43" t="s">
+      <c r="D61" s="40" t="s">
         <v>66</v>
       </c>
       <c r="E61" s="26">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F61" s="43">
+      <c r="F61" s="40">
         <v>0.6</v>
       </c>
-      <c r="G61" s="43">
+      <c r="G61" s="40">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H61" s="43">
+      <c r="H61" s="40">
         <v>200</v>
       </c>
       <c r="I61" s="37">
@@ -8784,7 +8875,7 @@
         <v>6.26</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" ht="15.6">
       <c r="A62" s="36">
         <v>79</v>
       </c>
@@ -8794,19 +8885,19 @@
       <c r="C62" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D62" s="43" t="s">
+      <c r="D62" s="40" t="s">
         <v>66</v>
       </c>
       <c r="E62" s="26">
         <v>1.2</v>
       </c>
-      <c r="F62" s="43">
+      <c r="F62" s="40">
         <v>0.6</v>
       </c>
-      <c r="G62" s="43">
+      <c r="G62" s="40">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H62" s="43">
+      <c r="H62" s="40">
         <v>200</v>
       </c>
       <c r="I62" s="37">
@@ -8833,7 +8924,7 @@
         <v>6.26</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" ht="15.6">
       <c r="A63" s="36">
         <v>79</v>
       </c>
@@ -8843,19 +8934,19 @@
       <c r="C63" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D63" s="43" t="s">
+      <c r="D63" s="40" t="s">
         <v>66</v>
       </c>
       <c r="E63" s="26">
         <v>1.3</v>
       </c>
-      <c r="F63" s="43">
+      <c r="F63" s="40">
         <v>0.6</v>
       </c>
-      <c r="G63" s="43">
+      <c r="G63" s="40">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H63" s="43">
+      <c r="H63" s="40">
         <v>200</v>
       </c>
       <c r="I63" s="37">
@@ -8882,7 +8973,7 @@
         <v>6.26</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" ht="15.6">
       <c r="A64" s="36">
         <v>79</v>
       </c>
@@ -8892,19 +8983,19 @@
       <c r="C64" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D64" s="43" t="s">
+      <c r="D64" s="40" t="s">
         <v>66</v>
       </c>
       <c r="E64" s="26">
         <v>1.4</v>
       </c>
-      <c r="F64" s="43">
+      <c r="F64" s="40">
         <v>0.6</v>
       </c>
-      <c r="G64" s="43">
+      <c r="G64" s="40">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H64" s="43">
+      <c r="H64" s="40">
         <v>200</v>
       </c>
       <c r="I64" s="37">
@@ -8931,7 +9022,7 @@
         <v>6.26</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" ht="15.6">
       <c r="A65" s="1">
         <v>78</v>
       </c>
@@ -8941,7 +9032,7 @@
       <c r="C65" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D65" s="43" t="s">
+      <c r="D65" s="40" t="s">
         <v>66</v>
       </c>
       <c r="E65" s="2">
@@ -8979,7 +9070,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" ht="15.6">
       <c r="A66" s="1">
         <v>78</v>
       </c>
@@ -8989,7 +9080,7 @@
       <c r="C66" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D66" s="43" t="s">
+      <c r="D66" s="40" t="s">
         <v>66</v>
       </c>
       <c r="E66" s="2">
@@ -9027,7 +9118,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" ht="15.6">
       <c r="A67" s="1">
         <v>78</v>
       </c>
@@ -9037,7 +9128,7 @@
       <c r="C67" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D67" s="43" t="s">
+      <c r="D67" s="40" t="s">
         <v>66</v>
       </c>
       <c r="E67" s="2">
@@ -9076,7 +9167,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" ht="15.6">
       <c r="A68" s="1">
         <v>78</v>
       </c>
@@ -9086,7 +9177,7 @@
       <c r="C68" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D68" s="43" t="s">
+      <c r="D68" s="40" t="s">
         <v>66</v>
       </c>
       <c r="E68" s="2">
@@ -9124,7 +9215,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" ht="15.6">
       <c r="A69" s="1">
         <v>78</v>
       </c>
@@ -9134,7 +9225,7 @@
       <c r="C69" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D69" s="43" t="s">
+      <c r="D69" s="40" t="s">
         <v>66</v>
       </c>
       <c r="E69" s="2">
@@ -9173,7 +9264,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" ht="15.6">
       <c r="A70" s="1">
         <v>78</v>
       </c>
@@ -9183,7 +9274,7 @@
       <c r="C70" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D70" s="43" t="s">
+      <c r="D70" s="40" t="s">
         <v>66</v>
       </c>
       <c r="E70" s="2">
@@ -9222,7 +9313,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" ht="15.6">
       <c r="A71" s="1">
         <v>77</v>
       </c>
@@ -9271,7 +9362,7 @@
         <v>6.24</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" ht="15.6">
       <c r="A72" s="1">
         <v>77</v>
       </c>
@@ -9320,7 +9411,7 @@
         <v>6.24</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" ht="15.6">
       <c r="A73" s="1">
         <v>77</v>
       </c>
@@ -9369,7 +9460,7 @@
         <v>6.24</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" ht="15.6">
       <c r="A74" s="1">
         <v>77</v>
       </c>
@@ -9418,7 +9509,7 @@
         <v>6.24</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" ht="15.6">
       <c r="A75" s="1">
         <v>77</v>
       </c>
@@ -9466,7 +9557,7 @@
         <v>6.24</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" ht="15.6">
       <c r="A76" s="1">
         <v>77</v>
       </c>
@@ -9514,7 +9605,7 @@
         <v>6.24</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" ht="15.6">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -9562,7 +9653,7 @@
         <v>6.3520000000000003</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" ht="15.6">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -9611,7 +9702,7 @@
         <v>6.3520000000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" ht="15.6">
       <c r="A79" s="1">
         <v>76</v>
       </c>
@@ -9659,7 +9750,7 @@
         <v>6.3520000000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" ht="15.6">
       <c r="A80" s="1">
         <v>76</v>
       </c>
@@ -9708,7 +9799,7 @@
         <v>6.3520000000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" ht="15.6">
       <c r="A81" s="1">
         <v>76</v>
       </c>
@@ -9757,7 +9848,7 @@
         <v>6.3520000000000003</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" ht="15.6">
       <c r="A82" s="1">
         <v>76</v>
       </c>
@@ -9806,7 +9897,7 @@
         <v>6.3520000000000003</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" ht="15.6">
       <c r="A83" s="1">
         <v>76</v>
       </c>
@@ -9854,7 +9945,7 @@
         <v>6.3520000000000003</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" ht="15.6">
       <c r="A84" s="1">
         <v>76</v>
       </c>
@@ -9903,7 +9994,7 @@
         <v>6.3520000000000003</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" ht="15.6">
       <c r="A85" s="1">
         <v>76</v>
       </c>
@@ -9952,7 +10043,7 @@
         <v>6.3520000000000003</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" ht="15.6" hidden="1">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="4"/>
@@ -9975,10 +10066,10 @@
         <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N86" s="44"/>
+      <c r="N86" s="41"/>
       <c r="O86" s="13"/>
     </row>
-    <row r="87" spans="1:15" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" ht="15.6" hidden="1">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="4"/>
@@ -10001,10 +10092,10 @@
         <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N87" s="44"/>
+      <c r="N87" s="41"/>
       <c r="O87" s="13"/>
     </row>
-    <row r="88" spans="1:15" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" ht="15.6" hidden="1">
       <c r="A88" s="36"/>
       <c r="B88" s="36"/>
       <c r="C88" s="26"/>
@@ -10030,7 +10121,7 @@
       <c r="N88" s="26"/>
       <c r="O88" s="27"/>
     </row>
-    <row r="89" spans="1:15" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" ht="15.6" hidden="1">
       <c r="A89" s="36">
         <v>79</v>
       </c>
@@ -10058,679 +10149,764 @@
       <c r="N89" s="26"/>
       <c r="O89" s="27"/>
     </row>
-    <row r="91" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C91" s="40" t="s">
+    <row r="90" spans="1:15" ht="15.6">
+      <c r="A90" s="48"/>
+      <c r="B90" s="48"/>
+      <c r="C90" s="49"/>
+      <c r="D90" s="49"/>
+      <c r="E90" s="49"/>
+      <c r="F90" s="49"/>
+      <c r="G90" s="49"/>
+      <c r="H90" s="49"/>
+      <c r="I90" s="50"/>
+      <c r="J90" s="51"/>
+      <c r="K90" s="51"/>
+      <c r="L90" s="52"/>
+      <c r="M90" s="50"/>
+      <c r="N90" s="49"/>
+      <c r="O90" s="49"/>
+    </row>
+    <row r="91" spans="1:15" ht="15.6">
+      <c r="A91" s="48"/>
+      <c r="B91" s="48"/>
+      <c r="C91" s="49"/>
+      <c r="D91" s="49"/>
+      <c r="E91" s="49"/>
+      <c r="F91" s="49"/>
+      <c r="G91" s="49"/>
+      <c r="H91" s="49"/>
+      <c r="I91" s="50"/>
+      <c r="J91" s="51"/>
+      <c r="K91" s="51"/>
+      <c r="L91" s="52"/>
+      <c r="M91" s="50"/>
+      <c r="N91" s="49"/>
+      <c r="O91" s="49"/>
+    </row>
+    <row r="92" spans="1:15" ht="15.6">
+      <c r="A92" s="48"/>
+      <c r="B92" s="48"/>
+      <c r="C92" s="49"/>
+      <c r="D92" s="49"/>
+      <c r="E92" s="49"/>
+      <c r="F92" s="49"/>
+      <c r="G92" s="49"/>
+      <c r="H92" s="49"/>
+      <c r="I92" s="50"/>
+      <c r="J92" s="51"/>
+      <c r="K92" s="51"/>
+      <c r="L92" s="52"/>
+      <c r="M92" s="50"/>
+      <c r="N92" s="49"/>
+      <c r="O92" s="49"/>
+    </row>
+    <row r="93" spans="1:15" ht="15.6">
+      <c r="A93" s="48"/>
+      <c r="B93" s="48"/>
+      <c r="C93" s="49"/>
+      <c r="D93" s="49"/>
+      <c r="E93" s="49"/>
+      <c r="F93" s="49"/>
+      <c r="G93" s="49"/>
+      <c r="H93" s="49"/>
+      <c r="I93" s="50"/>
+      <c r="J93" s="51"/>
+      <c r="K93" s="51"/>
+      <c r="L93" s="52"/>
+      <c r="M93" s="50"/>
+      <c r="N93" s="49"/>
+      <c r="O93" s="49"/>
+    </row>
+    <row r="94" spans="1:15" ht="15.6">
+      <c r="A94" s="48"/>
+      <c r="B94" s="48"/>
+      <c r="C94" s="49"/>
+      <c r="D94" s="49"/>
+      <c r="E94" s="49"/>
+      <c r="F94" s="49"/>
+      <c r="G94" s="49"/>
+      <c r="H94" s="49"/>
+      <c r="I94" s="50"/>
+      <c r="J94" s="51"/>
+      <c r="K94" s="51"/>
+      <c r="L94" s="52"/>
+      <c r="M94" s="50"/>
+      <c r="N94" s="49"/>
+      <c r="O94" s="49"/>
+    </row>
+    <row r="96" spans="1:15" ht="15.6">
+      <c r="C96" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="D91" s="41"/>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+      <c r="D96" s="43"/>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
         <v>50</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B97" t="s">
         <v>55</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C97" t="s">
         <v>56</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D97" t="s">
         <v>57</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E97" t="s">
         <v>52</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F97" t="s">
         <v>53</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G97" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A93">
+    <row r="98" spans="1:7">
+      <c r="A98">
         <v>77</v>
       </c>
-      <c r="B93">
+      <c r="B98">
         <v>0.36</v>
       </c>
-      <c r="C93">
+      <c r="C98">
         <v>57.5</v>
       </c>
-      <c r="D93">
+      <c r="D98">
         <v>55.2</v>
       </c>
-      <c r="E93" s="32">
+      <c r="E98" s="32">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>2.0408163265306097E-2</v>
       </c>
-      <c r="F93" s="32">
+      <c r="F98" s="32">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>0.96000000000000008</v>
       </c>
-      <c r="G93">
+      <c r="G98">
         <v>6.24</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A94">
+    <row r="99" spans="1:7">
+      <c r="A99">
         <v>77</v>
       </c>
-      <c r="B94">
+      <c r="B99">
         <v>0.6</v>
       </c>
-      <c r="C94">
+      <c r="C99">
         <v>65.5</v>
       </c>
-      <c r="D94">
+      <c r="D99">
         <v>75.8</v>
       </c>
-      <c r="E94" s="32">
+      <c r="E99" s="32">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>-7.2894550601556946E-2</v>
       </c>
-      <c r="F94" s="32">
+      <c r="F99" s="32">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>1.1572519083969466</v>
       </c>
-      <c r="G94">
+      <c r="G99">
         <v>6.24</v>
       </c>
     </row>
-    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A95">
+    <row r="100" spans="1:7" hidden="1">
+      <c r="A100">
         <v>76</v>
       </c>
-      <c r="B95">
+      <c r="B100">
         <v>0.24</v>
       </c>
-      <c r="C95">
+      <c r="C100">
         <f>AVERAGE(J43:J44)</f>
         <v>59.945000000000007</v>
       </c>
-      <c r="D95">
+      <c r="D100">
         <f>AVERAGE(K43:K44)</f>
         <v>64.27000000000001</v>
       </c>
-      <c r="E95" s="32">
+      <c r="E100" s="32">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>-3.4818661192287582E-2</v>
       </c>
-      <c r="F95" s="32">
+      <c r="F100" s="32">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>1.0721494703478189</v>
       </c>
-      <c r="G95">
+      <c r="G100">
         <v>6.3520000000000003</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A96">
+    <row r="101" spans="1:7">
+      <c r="A101">
         <v>77</v>
       </c>
-      <c r="B96">
+      <c r="B101">
         <v>0.84</v>
       </c>
-      <c r="C96">
+      <c r="C101">
         <v>66.5</v>
       </c>
-      <c r="D96">
+      <c r="D101">
         <v>85</v>
       </c>
-      <c r="E96" s="32">
+      <c r="E101" s="32">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>-0.12211221122112212</v>
       </c>
-      <c r="F96" s="32">
+      <c r="F101" s="32">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>1.2781954887218046</v>
       </c>
-      <c r="G96">
+      <c r="G101">
         <v>6.24</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97">
+    <row r="102" spans="1:7">
+      <c r="A102">
         <v>78</v>
       </c>
-      <c r="B97">
+      <c r="B102">
         <v>0.36</v>
       </c>
-      <c r="C97">
+      <c r="C102">
         <v>62.95</v>
       </c>
-      <c r="D97">
+      <c r="D102">
         <v>59.94</v>
       </c>
-      <c r="E97" s="32">
+      <c r="E102" s="32">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>2.4493449426316261E-2</v>
       </c>
-      <c r="F97" s="32">
+      <c r="F102" s="32">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>0.95218427323272425</v>
       </c>
-      <c r="G97">
+      <c r="G102">
         <v>6.33</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98">
+    <row r="103" spans="1:7">
+      <c r="A103">
         <v>78</v>
       </c>
-      <c r="B98">
+      <c r="B103">
         <v>0.6</v>
       </c>
-      <c r="C98">
+      <c r="C103">
         <v>71.150000000000006</v>
       </c>
-      <c r="D98">
+      <c r="D103">
         <v>76.97999999999999</v>
       </c>
-      <c r="E98" s="32">
+      <c r="E103" s="32">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>-3.9357321271855698E-2</v>
       </c>
-      <c r="F98" s="32">
+      <c r="F103" s="32">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>1.0819395643007728</v>
       </c>
-      <c r="G98">
+      <c r="G103">
         <v>6.33</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99">
+    <row r="104" spans="1:7">
+      <c r="A104">
         <v>78</v>
       </c>
-      <c r="B99">
+      <c r="B104">
         <v>0.84</v>
       </c>
-      <c r="C99">
+      <c r="C104">
         <v>70.040000000000006</v>
       </c>
-      <c r="D99">
+      <c r="D104">
         <v>79.540000000000006</v>
       </c>
-      <c r="E99" s="32">
+      <c r="E104" s="32">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>-6.3511164594197075E-2</v>
       </c>
-      <c r="F99" s="32">
+      <c r="F104" s="32">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>1.1356367789834381</v>
       </c>
-      <c r="G99">
+      <c r="G104">
         <v>6.33</v>
       </c>
     </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A100">
+    <row r="105" spans="1:7" hidden="1">
+      <c r="A105">
         <v>76</v>
       </c>
-      <c r="B100">
+      <c r="B105">
         <v>0.4</v>
       </c>
-      <c r="C100">
+      <c r="C105">
         <f>AVERAGE(J49:J50)</f>
         <v>58.1</v>
       </c>
-      <c r="D100">
+      <c r="D105">
         <f>AVERAGE(K49:K50)</f>
         <v>66.784999999999997</v>
       </c>
-      <c r="E100" s="32">
+      <c r="E105" s="32">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>-6.9543980462025035E-2</v>
       </c>
-      <c r="F100" s="32">
+      <c r="F105" s="32">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>1.1494836488812392</v>
       </c>
-      <c r="G100">
+      <c r="G105">
         <v>6.3520000000000003</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101">
+    <row r="106" spans="1:7">
+      <c r="A106">
         <v>79</v>
       </c>
-      <c r="B101">
+      <c r="B106">
         <v>0.6</v>
       </c>
-      <c r="C101">
+      <c r="C106">
         <v>61.17</v>
       </c>
-      <c r="D101">
+      <c r="D106">
         <v>63.26</v>
       </c>
-      <c r="E101" s="32">
+      <c r="E106" s="32">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>-1.679659246162498E-2</v>
       </c>
-      <c r="F101" s="32">
+      <c r="F106" s="32">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>1.0341670753637404</v>
       </c>
-      <c r="G101">
+      <c r="G106">
         <v>6.26</v>
       </c>
     </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A102">
+    <row r="107" spans="1:7" hidden="1">
+      <c r="A107">
         <v>76</v>
       </c>
-      <c r="B102">
+      <c r="B107">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C102">
+      <c r="C107">
         <f>AVERAGE(J53:J54)</f>
         <v>33.25</v>
       </c>
-      <c r="D102">
+      <c r="D107">
         <f>AVERAGE(K53:K54)</f>
         <v>62.2</v>
       </c>
-      <c r="E102" s="32">
+      <c r="E107" s="32">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>-0.30330015715034053</v>
       </c>
-      <c r="F102" s="32">
+      <c r="F107" s="32">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>1.8706766917293234</v>
       </c>
-      <c r="G102">
+      <c r="G107">
         <v>6.3520000000000003</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103">
+    <row r="108" spans="1:7">
+      <c r="A108">
         <v>79</v>
       </c>
-      <c r="B103">
+      <c r="B108">
         <v>0.84</v>
       </c>
-      <c r="C103">
+      <c r="C108">
         <v>62.239999999999995</v>
       </c>
-      <c r="D103">
+      <c r="D108">
         <v>65.400000000000006</v>
       </c>
-      <c r="E103" s="32">
+      <c r="E108" s="32">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>-2.4757129426512151E-2</v>
       </c>
-      <c r="F103" s="32">
+      <c r="F108" s="32">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>1.0507712082262213</v>
       </c>
-      <c r="G103">
+      <c r="G108">
         <v>6.26</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104">
+    <row r="109" spans="1:7">
+      <c r="A109">
         <v>79</v>
       </c>
-      <c r="B104">
+      <c r="B109">
         <v>0.36</v>
       </c>
-      <c r="C104">
+      <c r="C109">
         <v>0</v>
       </c>
-      <c r="D104">
+      <c r="D109">
         <v>39.4</v>
       </c>
-      <c r="E104" s="32">
+      <c r="E109" s="32">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>-1</v>
       </c>
-      <c r="F104" s="32" t="e">
+      <c r="F109" s="32" t="e">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G104">
+      <c r="G109">
         <v>6.26</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D107" s="21"/>
-      <c r="E107" s="21" t="s">
+    <row r="112" spans="1:7">
+      <c r="D112" s="21"/>
+      <c r="E112" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F107" s="21"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D108" s="21">
+      <c r="F112" s="21"/>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="D113" s="21">
         <v>77</v>
       </c>
-      <c r="E108" s="21">
+      <c r="E113" s="21">
         <v>0.66290000000000004</v>
       </c>
-      <c r="F108" s="21"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D109" s="21">
+      <c r="F113" s="21"/>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="D114" s="21">
         <v>78</v>
       </c>
-      <c r="E109" s="21">
+      <c r="E114" s="21">
         <v>0.38219999999999998</v>
       </c>
-      <c r="F109" s="21"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D110" s="21">
+      <c r="F114" s="21"/>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="D115" s="21">
         <v>79</v>
       </c>
-      <c r="E110" s="21">
+      <c r="E115" s="21">
         <v>6.9199999999999998E-2</v>
       </c>
-      <c r="F110" s="21"/>
-      <c r="I110" t="s">
+      <c r="F115" s="21"/>
+      <c r="I115" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C111" t="s">
+    <row r="116" spans="1:9">
+      <c r="C116" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+    <row r="117" spans="1:9">
+      <c r="A117" t="s">
         <v>50</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B117" t="s">
         <v>55</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C117" t="s">
         <v>56</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D117" t="s">
         <v>57</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E117" t="s">
         <v>52</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F117" t="s">
         <v>53</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G117" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113">
+    <row r="118" spans="1:9">
+      <c r="A118">
         <v>77</v>
       </c>
-      <c r="B113">
+      <c r="B118">
         <v>0.36</v>
       </c>
-      <c r="C113">
+      <c r="C118">
         <v>57.5</v>
       </c>
-      <c r="D113">
+      <c r="D118">
         <v>55.2</v>
       </c>
-      <c r="E113">
+      <c r="E118">
         <v>2.0408163265306097E-2</v>
       </c>
-      <c r="F113">
+      <c r="F118">
         <v>0.96000000000000008</v>
       </c>
-      <c r="G113">
+      <c r="G118">
         <v>6.24</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A114">
+    <row r="119" spans="1:9">
+      <c r="A119">
         <v>77</v>
       </c>
-      <c r="B114">
+      <c r="B119">
         <v>0.6</v>
       </c>
-      <c r="C114">
+      <c r="C119">
         <v>65.5</v>
       </c>
-      <c r="D114">
+      <c r="D119">
         <v>75.8</v>
       </c>
-      <c r="E114">
+      <c r="E119">
         <v>-7.2894550601556946E-2</v>
       </c>
-      <c r="F114">
+      <c r="F119">
         <v>1.1572519083969466</v>
       </c>
-      <c r="G114">
+      <c r="G119">
         <v>6.24</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115">
-        <v>76</v>
-      </c>
-      <c r="B115">
-        <v>0.24</v>
-      </c>
-      <c r="C115">
-        <v>55.9</v>
-      </c>
-      <c r="D115">
-        <v>64.984999999999999</v>
-      </c>
-      <c r="E115">
-        <v>-7.515407205195021E-2</v>
-      </c>
-      <c r="F115">
-        <v>1.1625223613595708</v>
-      </c>
-      <c r="G115">
-        <v>6.3520000000000003</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A116">
-        <v>77</v>
-      </c>
-      <c r="B116">
-        <v>0.84</v>
-      </c>
-      <c r="C116">
-        <v>66.5</v>
-      </c>
-      <c r="D116">
-        <v>85</v>
-      </c>
-      <c r="E116">
-        <v>-0.12211221122112212</v>
-      </c>
-      <c r="F116">
-        <v>1.2781954887218046</v>
-      </c>
-      <c r="G116">
-        <v>6.24</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A117">
-        <v>78</v>
-      </c>
-      <c r="B117">
-        <v>0.36</v>
-      </c>
-      <c r="C117">
-        <v>62.95</v>
-      </c>
-      <c r="D117">
-        <v>59.94</v>
-      </c>
-      <c r="E117">
-        <v>2.4493449426316261E-2</v>
-      </c>
-      <c r="F117">
-        <v>0.95218427323272425</v>
-      </c>
-      <c r="G117">
-        <v>6.33</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A118">
-        <v>78</v>
-      </c>
-      <c r="B118">
-        <v>0.6</v>
-      </c>
-      <c r="C118">
-        <v>71.150000000000006</v>
-      </c>
-      <c r="D118">
-        <v>76.97999999999999</v>
-      </c>
-      <c r="E118">
-        <v>-3.9357321271855698E-2</v>
-      </c>
-      <c r="F118">
-        <v>1.0819395643007728</v>
-      </c>
-      <c r="G118">
-        <v>6.33</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A119">
-        <v>78</v>
-      </c>
-      <c r="B119">
-        <v>0.84</v>
-      </c>
-      <c r="C119">
-        <v>70.040000000000006</v>
-      </c>
-      <c r="D119">
-        <v>79.540000000000006</v>
-      </c>
-      <c r="E119">
-        <v>-6.3511164594197075E-2</v>
-      </c>
-      <c r="F119">
-        <v>1.1356367789834381</v>
-      </c>
-      <c r="G119">
-        <v>6.33</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9">
       <c r="A120">
         <v>76</v>
       </c>
       <c r="B120">
-        <v>0.4</v>
+        <v>0.24</v>
       </c>
       <c r="C120">
-        <v>66</v>
+        <v>55.9</v>
       </c>
       <c r="D120">
-        <v>80.400000000000006</v>
+        <v>64.984999999999999</v>
       </c>
       <c r="E120">
-        <v>-9.8360655737704958E-2</v>
+        <v>-7.515407205195021E-2</v>
       </c>
       <c r="F120">
-        <v>1.2181818181818183</v>
+        <v>1.1625223613595708</v>
       </c>
       <c r="G120">
         <v>6.3520000000000003</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9">
       <c r="A121">
+        <v>77</v>
+      </c>
+      <c r="B121">
+        <v>0.84</v>
+      </c>
+      <c r="C121">
+        <v>66.5</v>
+      </c>
+      <c r="D121">
+        <v>85</v>
+      </c>
+      <c r="E121">
+        <v>-0.12211221122112212</v>
+      </c>
+      <c r="F121">
+        <v>1.2781954887218046</v>
+      </c>
+      <c r="G121">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122">
+        <v>78</v>
+      </c>
+      <c r="B122">
+        <v>0.36</v>
+      </c>
+      <c r="C122">
+        <v>62.95</v>
+      </c>
+      <c r="D122">
+        <v>59.94</v>
+      </c>
+      <c r="E122">
+        <v>2.4493449426316261E-2</v>
+      </c>
+      <c r="F122">
+        <v>0.95218427323272425</v>
+      </c>
+      <c r="G122">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123">
+        <v>78</v>
+      </c>
+      <c r="B123">
+        <v>0.6</v>
+      </c>
+      <c r="C123">
+        <v>71.150000000000006</v>
+      </c>
+      <c r="D123">
+        <v>76.97999999999999</v>
+      </c>
+      <c r="E123">
+        <v>-3.9357321271855698E-2</v>
+      </c>
+      <c r="F123">
+        <v>1.0819395643007728</v>
+      </c>
+      <c r="G123">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124">
+        <v>78</v>
+      </c>
+      <c r="B124">
+        <v>0.84</v>
+      </c>
+      <c r="C124">
+        <v>70.040000000000006</v>
+      </c>
+      <c r="D124">
+        <v>79.540000000000006</v>
+      </c>
+      <c r="E124">
+        <v>-6.3511164594197075E-2</v>
+      </c>
+      <c r="F124">
+        <v>1.1356367789834381</v>
+      </c>
+      <c r="G124">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125">
+        <v>76</v>
+      </c>
+      <c r="B125">
+        <v>0.4</v>
+      </c>
+      <c r="C125">
+        <v>66</v>
+      </c>
+      <c r="D125">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="E125">
+        <v>-9.8360655737704958E-2</v>
+      </c>
+      <c r="F125">
+        <v>1.2181818181818183</v>
+      </c>
+      <c r="G125">
+        <v>6.3520000000000003</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126">
         <v>79</v>
       </c>
-      <c r="B121">
+      <c r="B126">
         <v>0.6</v>
       </c>
-      <c r="C121">
+      <c r="C126">
         <v>61.17</v>
       </c>
-      <c r="D121">
+      <c r="D126">
         <v>63.26</v>
       </c>
-      <c r="E121">
+      <c r="E126">
         <v>-1.679659246162498E-2</v>
       </c>
-      <c r="F121">
+      <c r="F126">
         <v>1.0341670753637404</v>
       </c>
-      <c r="G121">
+      <c r="G126">
         <v>6.26</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122">
+    <row r="127" spans="1:9">
+      <c r="A127">
         <v>76</v>
       </c>
-      <c r="B122">
+      <c r="B127">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C122">
+      <c r="C127">
         <v>35.020000000000003</v>
       </c>
-      <c r="D122">
+      <c r="D127">
         <v>59.47</v>
       </c>
-      <c r="E122">
+      <c r="E127">
         <v>-0.25875754048047406</v>
       </c>
-      <c r="F122">
+      <c r="F127">
         <v>1.6981724728726439</v>
       </c>
-      <c r="G122">
+      <c r="G127">
         <v>6.3520000000000003</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123">
+    <row r="128" spans="1:9">
+      <c r="A128">
         <v>79</v>
       </c>
-      <c r="B123">
+      <c r="B128">
         <v>0.84</v>
       </c>
-      <c r="C123">
+      <c r="C128">
         <v>62.239999999999995</v>
       </c>
-      <c r="D123">
+      <c r="D128">
         <v>65.400000000000006</v>
       </c>
-      <c r="E123">
+      <c r="E128">
         <v>-2.4757129426512151E-2</v>
       </c>
-      <c r="F123">
+      <c r="F128">
         <v>1.0507712082262213</v>
       </c>
-      <c r="G123">
+      <c r="G128">
         <v>6.26</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124">
+    <row r="129" spans="1:7">
+      <c r="A129">
         <v>79</v>
       </c>
-      <c r="B124">
+      <c r="B129">
         <v>0.36</v>
       </c>
-      <c r="C124">
+      <c r="C129">
         <v>0</v>
       </c>
-      <c r="D124">
+      <c r="D129">
         <v>39.4</v>
       </c>
-      <c r="E124">
+      <c r="E129">
         <v>-1</v>
       </c>
-      <c r="F124" t="e">
+      <c r="F129" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="G124">
+      <c r="G129">
         <v>6.26</v>
       </c>
     </row>
@@ -10738,7 +10914,7 @@
   <mergeCells count="3">
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="P35:V35"/>
-    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C96:D96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10758,93 +10934,93 @@
       <selection activeCell="A6" sqref="A6:K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.6">
       <c r="A1" s="35" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15">
       <c r="A19" s="45" t="s">
         <v>69</v>
       </c>
@@ -10863,7 +11039,7 @@
       <c r="N19" s="45"/>
       <c r="O19" s="45"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15">
       <c r="A20" s="45"/>
       <c r="B20" s="45"/>
       <c r="C20" s="45"/>
@@ -10880,7 +11056,7 @@
       <c r="N20" s="45"/>
       <c r="O20" s="45"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15">
       <c r="A21" s="45"/>
       <c r="B21" s="45"/>
       <c r="C21" s="45"/>
@@ -10912,12 +11088,1433 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="2" spans="1:15">
+      <c r="A2">
+        <v>79</v>
+      </c>
+      <c r="B2">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2">
+        <v>0.7</v>
+      </c>
+      <c r="F2">
+        <v>0.6</v>
+      </c>
+      <c r="G2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H2">
+        <v>200</v>
+      </c>
+      <c r="I2">
+        <v>0.42</v>
+      </c>
+      <c r="K2">
+        <v>48</v>
+      </c>
+      <c r="L2">
+        <v>-1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>79</v>
+      </c>
+      <c r="B3">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3">
+        <v>0.8</v>
+      </c>
+      <c r="F3">
+        <v>0.6</v>
+      </c>
+      <c r="G3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H3">
+        <v>200</v>
+      </c>
+      <c r="I3">
+        <v>0.48</v>
+      </c>
+      <c r="K3">
+        <v>58.06</v>
+      </c>
+      <c r="L3">
+        <v>-1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>79</v>
+      </c>
+      <c r="B4">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4">
+        <v>0.9</v>
+      </c>
+      <c r="F4">
+        <v>0.6</v>
+      </c>
+      <c r="G4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H4">
+        <v>200</v>
+      </c>
+      <c r="I4">
+        <v>0.54</v>
+      </c>
+      <c r="K4">
+        <v>64.77</v>
+      </c>
+      <c r="L4">
+        <v>-1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>79</v>
+      </c>
+      <c r="B5">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.6</v>
+      </c>
+      <c r="G5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H5">
+        <v>200</v>
+      </c>
+      <c r="I5">
+        <v>0.6</v>
+      </c>
+      <c r="K5">
+        <v>62.53</v>
+      </c>
+      <c r="L5">
+        <v>-1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
+        <v>79</v>
+      </c>
+      <c r="B6">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F6">
+        <v>0.6</v>
+      </c>
+      <c r="G6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H6">
+        <v>200</v>
+      </c>
+      <c r="I6">
+        <v>0.66</v>
+      </c>
+      <c r="K6">
+        <v>71.459999999999994</v>
+      </c>
+      <c r="L6">
+        <v>-1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7">
+        <v>79</v>
+      </c>
+      <c r="B7">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7">
+        <v>1.2</v>
+      </c>
+      <c r="F7">
+        <v>0.6</v>
+      </c>
+      <c r="G7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H7">
+        <v>200</v>
+      </c>
+      <c r="I7">
+        <v>0.72</v>
+      </c>
+      <c r="K7">
+        <v>76.78</v>
+      </c>
+      <c r="L7">
+        <v>-1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
+        <v>79</v>
+      </c>
+      <c r="B8">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8">
+        <v>1.3</v>
+      </c>
+      <c r="F8">
+        <v>0.6</v>
+      </c>
+      <c r="G8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H8">
+        <v>200</v>
+      </c>
+      <c r="I8">
+        <v>0.78</v>
+      </c>
+      <c r="K8">
+        <v>80.510000000000005</v>
+      </c>
+      <c r="L8">
+        <v>-1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9">
+        <v>79</v>
+      </c>
+      <c r="B9">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9">
+        <v>1.4</v>
+      </c>
+      <c r="F9">
+        <v>0.6</v>
+      </c>
+      <c r="G9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H9">
+        <v>200</v>
+      </c>
+      <c r="I9">
+        <v>0.84</v>
+      </c>
+      <c r="K9">
+        <v>81.504999999999995</v>
+      </c>
+      <c r="L9">
+        <v>-1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>70</v>
+      </c>
+      <c r="O9">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <v>78</v>
+      </c>
+      <c r="B10">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10">
+        <v>0.6</v>
+      </c>
+      <c r="F10">
+        <v>0.6</v>
+      </c>
+      <c r="G10">
+        <v>0.5</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>0.36</v>
+      </c>
+      <c r="K10">
+        <v>60.29</v>
+      </c>
+      <c r="L10">
+        <v>-1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>70</v>
+      </c>
+      <c r="O10">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <v>78</v>
+      </c>
+      <c r="B11">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11">
+        <v>0.7</v>
+      </c>
+      <c r="F11">
+        <v>0.6</v>
+      </c>
+      <c r="G11">
+        <v>0.5</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>0.42</v>
+      </c>
+      <c r="K11">
+        <v>64.760000000000005</v>
+      </c>
+      <c r="L11">
+        <v>-1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>70</v>
+      </c>
+      <c r="O11">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12">
+        <v>78</v>
+      </c>
+      <c r="B12">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12">
+        <v>0.8</v>
+      </c>
+      <c r="F12">
+        <v>0.6</v>
+      </c>
+      <c r="G12">
+        <v>0.5</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>0.48</v>
+      </c>
+      <c r="K12">
+        <v>66.605000000000004</v>
+      </c>
+      <c r="L12">
+        <v>-1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>70</v>
+      </c>
+      <c r="O12">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13">
+        <v>78</v>
+      </c>
+      <c r="B13">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.6</v>
+      </c>
+      <c r="G13">
+        <v>0.5</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>0.6</v>
+      </c>
+      <c r="K13">
+        <v>75.92</v>
+      </c>
+      <c r="L13">
+        <v>-1</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>70</v>
+      </c>
+      <c r="O13">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14">
+        <v>78</v>
+      </c>
+      <c r="B14">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14">
+        <v>1.2</v>
+      </c>
+      <c r="F14">
+        <v>0.6</v>
+      </c>
+      <c r="G14">
+        <v>0.5</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>0.72</v>
+      </c>
+      <c r="K14">
+        <v>83.74</v>
+      </c>
+      <c r="L14">
+        <v>-1</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>70</v>
+      </c>
+      <c r="O14">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15">
+        <v>78</v>
+      </c>
+      <c r="B15">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15">
+        <v>1.4</v>
+      </c>
+      <c r="F15">
+        <v>0.6</v>
+      </c>
+      <c r="G15">
+        <v>0.5</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>0.84</v>
+      </c>
+      <c r="K15">
+        <v>92.66</v>
+      </c>
+      <c r="L15">
+        <v>-1</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16">
+        <v>77</v>
+      </c>
+      <c r="B16">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16">
+        <v>0.6</v>
+      </c>
+      <c r="F16">
+        <v>0.6</v>
+      </c>
+      <c r="G16">
+        <v>0.05</v>
+      </c>
+      <c r="H16">
+        <v>20</v>
+      </c>
+      <c r="I16">
+        <v>0.36</v>
+      </c>
+      <c r="K16">
+        <v>56.945</v>
+      </c>
+      <c r="L16">
+        <v>-1</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>70</v>
+      </c>
+      <c r="O16">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17">
+        <v>77</v>
+      </c>
+      <c r="B17">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17">
+        <v>0.7</v>
+      </c>
+      <c r="F17">
+        <v>0.6</v>
+      </c>
+      <c r="G17">
+        <v>0.05</v>
+      </c>
+      <c r="H17">
+        <v>20</v>
+      </c>
+      <c r="I17">
+        <v>0.42</v>
+      </c>
+      <c r="K17">
+        <v>61.405000000000001</v>
+      </c>
+      <c r="L17">
+        <v>-1</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>70</v>
+      </c>
+      <c r="O17">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18">
+        <v>77</v>
+      </c>
+      <c r="B18">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18">
+        <v>0.8</v>
+      </c>
+      <c r="F18">
+        <v>0.6</v>
+      </c>
+      <c r="G18">
+        <v>0.05</v>
+      </c>
+      <c r="H18">
+        <v>20</v>
+      </c>
+      <c r="I18">
+        <v>0.48</v>
+      </c>
+      <c r="K18">
+        <v>64.754999999999995</v>
+      </c>
+      <c r="L18">
+        <v>-1</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>70</v>
+      </c>
+      <c r="O18">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19">
+        <v>77</v>
+      </c>
+      <c r="B19">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.6</v>
+      </c>
+      <c r="G19">
+        <v>0.05</v>
+      </c>
+      <c r="H19">
+        <v>20</v>
+      </c>
+      <c r="I19">
+        <v>0.6</v>
+      </c>
+      <c r="K19">
+        <v>73.69</v>
+      </c>
+      <c r="L19">
+        <v>-1</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>70</v>
+      </c>
+      <c r="O19">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20">
+        <v>77</v>
+      </c>
+      <c r="B20">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20">
+        <v>1.2</v>
+      </c>
+      <c r="F20">
+        <v>0.6</v>
+      </c>
+      <c r="G20">
+        <v>0.05</v>
+      </c>
+      <c r="H20">
+        <v>20</v>
+      </c>
+      <c r="I20">
+        <v>0.72</v>
+      </c>
+      <c r="K20">
+        <v>82.62</v>
+      </c>
+      <c r="L20">
+        <v>-1</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>70</v>
+      </c>
+      <c r="O20">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21">
+        <v>77</v>
+      </c>
+      <c r="B21">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21">
+        <v>1.4</v>
+      </c>
+      <c r="F21">
+        <v>0.6</v>
+      </c>
+      <c r="G21">
+        <v>0.05</v>
+      </c>
+      <c r="H21">
+        <v>20</v>
+      </c>
+      <c r="I21">
+        <v>0.84</v>
+      </c>
+      <c r="K21">
+        <v>87.09</v>
+      </c>
+      <c r="L21">
+        <v>-1</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>70</v>
+      </c>
+      <c r="O21">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22">
+        <v>76</v>
+      </c>
+      <c r="B22">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22">
+        <v>0.6</v>
+      </c>
+      <c r="F22">
+        <v>0.4</v>
+      </c>
+      <c r="G22">
+        <v>0.05</v>
+      </c>
+      <c r="H22">
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <v>0.24</v>
+      </c>
+      <c r="K22">
+        <v>40.19</v>
+      </c>
+      <c r="L22">
+        <v>-1</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O22">
+        <v>6.3520000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23">
+        <v>76</v>
+      </c>
+      <c r="B23">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23">
+        <v>0.7</v>
+      </c>
+      <c r="F23">
+        <v>0.4</v>
+      </c>
+      <c r="G23">
+        <v>0.05</v>
+      </c>
+      <c r="H23">
+        <v>20</v>
+      </c>
+      <c r="I23">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K23">
+        <v>49.125</v>
+      </c>
+      <c r="L23">
+        <v>-1</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>70</v>
+      </c>
+      <c r="O23">
+        <v>6.3520000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24">
+        <v>76</v>
+      </c>
+      <c r="B24">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24">
+        <v>0.8</v>
+      </c>
+      <c r="F24">
+        <v>0.4</v>
+      </c>
+      <c r="G24">
+        <v>0.05</v>
+      </c>
+      <c r="H24">
+        <v>20</v>
+      </c>
+      <c r="I24">
+        <v>0.32</v>
+      </c>
+      <c r="K24">
+        <v>55.83</v>
+      </c>
+      <c r="L24">
+        <v>-1</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
+        <v>70</v>
+      </c>
+      <c r="O24">
+        <v>6.3520000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25">
+        <v>76</v>
+      </c>
+      <c r="B25">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25">
+        <v>0.9</v>
+      </c>
+      <c r="F25">
+        <v>0.4</v>
+      </c>
+      <c r="G25">
+        <v>0.05</v>
+      </c>
+      <c r="H25">
+        <v>20</v>
+      </c>
+      <c r="I25">
+        <v>0.36</v>
+      </c>
+      <c r="K25">
+        <v>59.174999999999997</v>
+      </c>
+      <c r="L25">
+        <v>-1</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
+        <v>70</v>
+      </c>
+      <c r="O25">
+        <v>6.3520000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26">
+        <v>76</v>
+      </c>
+      <c r="B26">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.4</v>
+      </c>
+      <c r="G26">
+        <v>0.05</v>
+      </c>
+      <c r="H26">
+        <v>20</v>
+      </c>
+      <c r="I26">
+        <v>0.4</v>
+      </c>
+      <c r="K26">
+        <v>61.405000000000001</v>
+      </c>
+      <c r="L26">
+        <v>-1</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
+        <v>70</v>
+      </c>
+      <c r="O26">
+        <v>6.3520000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27">
+        <v>76</v>
+      </c>
+      <c r="B27">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F27">
+        <v>0.4</v>
+      </c>
+      <c r="G27">
+        <v>0.05</v>
+      </c>
+      <c r="H27">
+        <v>20</v>
+      </c>
+      <c r="I27">
+        <v>0.44</v>
+      </c>
+      <c r="K27">
+        <v>65.875</v>
+      </c>
+      <c r="L27">
+        <v>-1</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27" t="s">
+        <v>70</v>
+      </c>
+      <c r="O27">
+        <v>6.3520000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28">
+        <v>76</v>
+      </c>
+      <c r="B28">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28">
+        <v>1.2</v>
+      </c>
+      <c r="F28">
+        <v>0.4</v>
+      </c>
+      <c r="G28">
+        <v>0.05</v>
+      </c>
+      <c r="H28">
+        <v>20</v>
+      </c>
+      <c r="I28">
+        <v>0.48</v>
+      </c>
+      <c r="K28">
+        <v>69.22</v>
+      </c>
+      <c r="L28">
+        <v>-1</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28" t="s">
+        <v>70</v>
+      </c>
+      <c r="O28">
+        <v>6.3520000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29">
+        <v>76</v>
+      </c>
+      <c r="B29">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29">
+        <v>1.3</v>
+      </c>
+      <c r="F29">
+        <v>0.4</v>
+      </c>
+      <c r="G29">
+        <v>0.05</v>
+      </c>
+      <c r="H29">
+        <v>20</v>
+      </c>
+      <c r="I29">
+        <v>0.52</v>
+      </c>
+      <c r="K29">
+        <v>72.575000000000003</v>
+      </c>
+      <c r="L29">
+        <v>-1</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29" t="s">
+        <v>70</v>
+      </c>
+      <c r="O29">
+        <v>6.3520000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30">
+        <v>76</v>
+      </c>
+      <c r="B30">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30">
+        <v>1.4</v>
+      </c>
+      <c r="F30">
+        <v>0.4</v>
+      </c>
+      <c r="G30">
+        <v>0.05</v>
+      </c>
+      <c r="H30">
+        <v>20</v>
+      </c>
+      <c r="I30">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K30">
+        <v>75.924999999999997</v>
+      </c>
+      <c r="L30">
+        <v>-1</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30" t="s">
+        <v>70</v>
+      </c>
+      <c r="O30">
+        <v>6.3520000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="47"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="47"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="47"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="47"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="47"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="47"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="47"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="47"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A35:M43"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Synthèse-Experiences/Hole_Size_Dosev3.xlsx
+++ b/Synthèse-Experiences/Hole_Size_Dosev3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -690,6 +690,21 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -706,21 +721,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2108,11 +2108,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213435904"/>
-        <c:axId val="213437440"/>
+        <c:axId val="212788736"/>
+        <c:axId val="212790272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213435904"/>
+        <c:axId val="212788736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2122,12 +2122,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213437440"/>
+        <c:crossAx val="212790272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213437440"/>
+        <c:axId val="212790272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2138,7 +2138,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213435904"/>
+        <c:crossAx val="212788736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2314,11 +2314,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="215791104"/>
-        <c:axId val="215792640"/>
+        <c:axId val="213825024"/>
+        <c:axId val="213826560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="215791104"/>
+        <c:axId val="213825024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2"/>
@@ -2329,12 +2329,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215792640"/>
+        <c:crossAx val="213826560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="215792640"/>
+        <c:axId val="213826560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2345,7 +2345,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215791104"/>
+        <c:crossAx val="213825024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2602,11 +2602,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="215821312"/>
-        <c:axId val="215827584"/>
+        <c:axId val="213859328"/>
+        <c:axId val="213869696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="215821312"/>
+        <c:axId val="213859328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2635,12 +2635,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215827584"/>
+        <c:crossAx val="213869696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="215827584"/>
+        <c:axId val="213869696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2677,7 +2677,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215821312"/>
+        <c:crossAx val="213859328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2838,11 +2838,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="216137728"/>
-        <c:axId val="216139648"/>
+        <c:axId val="213903232"/>
+        <c:axId val="214175744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="216137728"/>
+        <c:axId val="213903232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2871,12 +2871,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216139648"/>
+        <c:crossAx val="214175744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="216139648"/>
+        <c:axId val="214175744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -2908,7 +2908,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216137728"/>
+        <c:crossAx val="213903232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3438,11 +3438,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="216200704"/>
-        <c:axId val="216202624"/>
+        <c:axId val="214308736"/>
+        <c:axId val="214310912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="216200704"/>
+        <c:axId val="214308736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.2"/>
@@ -3477,12 +3477,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216202624"/>
+        <c:crossAx val="214310912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="216202624"/>
+        <c:axId val="214310912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="40"/>
@@ -3513,7 +3513,464 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216200704"/>
+        <c:crossAx val="214308736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Effect of dose on the pore</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> size</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.0328282757705874E-2"/>
+          <c:y val="8.0302676254971159E-2"/>
+          <c:w val="0.73244776806723633"/>
+          <c:h val="0.83141900344647002"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>79 Loop 200</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil2!$I$57:$I$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil2!$K$57:$K$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71.459999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76.779999999999987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80.509999999999991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81.504999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>78 Loop 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil2!$I$65:$I$70</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil2!$K$65:$K$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>60.29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.60499999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.740000000000009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92.66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>77 Loop 20</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil2!$I$71:$I$76</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil2!$K$71:$K$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>56.945</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.405000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.754999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73.69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87.09</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>76 Loop 20</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil2!$I$77:$I$85</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.55999999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil2!$K$77:$K$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>40.19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.83</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.174999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61.405000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65.875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72.574999999999989</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75.924999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="190245504"/>
+        <c:axId val="221840128"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="190245504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="1600"/>
+                  <a:t>Total</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="1600" baseline="0"/>
+                  <a:t> dose (pC)</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="221840128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="221840128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="1800" baseline="0"/>
+                  <a:t>Pore size (nm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="190245504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3914,16 +4371,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>41563</xdr:colOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>512619</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>13855</xdr:rowOff>
+      <xdr:rowOff>41564</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>27709</xdr:colOff>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>498765</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>1152</xdr:rowOff>
+      <xdr:rowOff>28861</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3947,8 +4404,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="19340945" y="13855"/>
-          <a:ext cx="12178146" cy="8472799"/>
+          <a:off x="28956001" y="41564"/>
+          <a:ext cx="12178146" cy="8452424"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3975,15 +4432,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>27709</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>332508</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>83128</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>360218</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>7672</xdr:rowOff>
+      <xdr:colOff>665017</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>90800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4007,7 +4464,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11873345" y="0"/>
+          <a:off x="12178144" y="263237"/>
           <a:ext cx="12178146" cy="8472799"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4025,6 +4482,38 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>595744</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>422069</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>169717</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4409,10 +4898,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.6">
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="43"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:16" ht="16.2" thickBot="1">
       <c r="A2" s="5" t="s">
@@ -5836,11 +6325,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K67" sqref="K67"/>
+      <selection pane="bottomRight" activeCell="O99" sqref="O99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -5863,10 +6352,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6">
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="43"/>
+      <c r="K1" s="48"/>
       <c r="L1" s="19" t="s">
         <v>21</v>
       </c>
@@ -7562,15 +8051,15 @@
       <c r="O35" s="14">
         <v>0.45800000000000002</v>
       </c>
-      <c r="P35" s="44" t="s">
+      <c r="P35" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="Q35" s="44"/>
-      <c r="R35" s="44"/>
-      <c r="S35" s="44"/>
-      <c r="T35" s="44"/>
-      <c r="U35" s="44"/>
-      <c r="V35" s="44"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="49"/>
+      <c r="U35" s="49"/>
+      <c r="V35" s="49"/>
     </row>
     <row r="36" spans="1:22" ht="16.2" hidden="1" thickTop="1">
       <c r="A36" s="1">
@@ -10150,95 +10639,95 @@
       <c r="O89" s="27"/>
     </row>
     <row r="90" spans="1:15" ht="15.6">
-      <c r="A90" s="48"/>
-      <c r="B90" s="48"/>
-      <c r="C90" s="49"/>
-      <c r="D90" s="49"/>
-      <c r="E90" s="49"/>
-      <c r="F90" s="49"/>
-      <c r="G90" s="49"/>
-      <c r="H90" s="49"/>
-      <c r="I90" s="50"/>
-      <c r="J90" s="51"/>
-      <c r="K90" s="51"/>
-      <c r="L90" s="52"/>
-      <c r="M90" s="50"/>
-      <c r="N90" s="49"/>
-      <c r="O90" s="49"/>
+      <c r="A90" s="42"/>
+      <c r="B90" s="42"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="43"/>
+      <c r="E90" s="43"/>
+      <c r="F90" s="43"/>
+      <c r="G90" s="43"/>
+      <c r="H90" s="43"/>
+      <c r="I90" s="44"/>
+      <c r="J90" s="45"/>
+      <c r="K90" s="45"/>
+      <c r="L90" s="46"/>
+      <c r="M90" s="44"/>
+      <c r="N90" s="43"/>
+      <c r="O90" s="43"/>
     </row>
     <row r="91" spans="1:15" ht="15.6">
-      <c r="A91" s="48"/>
-      <c r="B91" s="48"/>
-      <c r="C91" s="49"/>
-      <c r="D91" s="49"/>
-      <c r="E91" s="49"/>
-      <c r="F91" s="49"/>
-      <c r="G91" s="49"/>
-      <c r="H91" s="49"/>
-      <c r="I91" s="50"/>
-      <c r="J91" s="51"/>
-      <c r="K91" s="51"/>
-      <c r="L91" s="52"/>
-      <c r="M91" s="50"/>
-      <c r="N91" s="49"/>
-      <c r="O91" s="49"/>
+      <c r="A91" s="42"/>
+      <c r="B91" s="42"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="43"/>
+      <c r="E91" s="43"/>
+      <c r="F91" s="43"/>
+      <c r="G91" s="43"/>
+      <c r="H91" s="43"/>
+      <c r="I91" s="44"/>
+      <c r="J91" s="45"/>
+      <c r="K91" s="45"/>
+      <c r="L91" s="46"/>
+      <c r="M91" s="44"/>
+      <c r="N91" s="43"/>
+      <c r="O91" s="43"/>
     </row>
     <row r="92" spans="1:15" ht="15.6">
-      <c r="A92" s="48"/>
-      <c r="B92" s="48"/>
-      <c r="C92" s="49"/>
-      <c r="D92" s="49"/>
-      <c r="E92" s="49"/>
-      <c r="F92" s="49"/>
-      <c r="G92" s="49"/>
-      <c r="H92" s="49"/>
-      <c r="I92" s="50"/>
-      <c r="J92" s="51"/>
-      <c r="K92" s="51"/>
-      <c r="L92" s="52"/>
-      <c r="M92" s="50"/>
-      <c r="N92" s="49"/>
-      <c r="O92" s="49"/>
+      <c r="A92" s="42"/>
+      <c r="B92" s="42"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="43"/>
+      <c r="E92" s="43"/>
+      <c r="F92" s="43"/>
+      <c r="G92" s="43"/>
+      <c r="H92" s="43"/>
+      <c r="I92" s="44"/>
+      <c r="J92" s="45"/>
+      <c r="K92" s="45"/>
+      <c r="L92" s="46"/>
+      <c r="M92" s="44"/>
+      <c r="N92" s="43"/>
+      <c r="O92" s="43"/>
     </row>
     <row r="93" spans="1:15" ht="15.6">
-      <c r="A93" s="48"/>
-      <c r="B93" s="48"/>
-      <c r="C93" s="49"/>
-      <c r="D93" s="49"/>
-      <c r="E93" s="49"/>
-      <c r="F93" s="49"/>
-      <c r="G93" s="49"/>
-      <c r="H93" s="49"/>
-      <c r="I93" s="50"/>
-      <c r="J93" s="51"/>
-      <c r="K93" s="51"/>
-      <c r="L93" s="52"/>
-      <c r="M93" s="50"/>
-      <c r="N93" s="49"/>
-      <c r="O93" s="49"/>
+      <c r="A93" s="42"/>
+      <c r="B93" s="42"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="43"/>
+      <c r="F93" s="43"/>
+      <c r="G93" s="43"/>
+      <c r="H93" s="43"/>
+      <c r="I93" s="44"/>
+      <c r="J93" s="45"/>
+      <c r="K93" s="45"/>
+      <c r="L93" s="46"/>
+      <c r="M93" s="44"/>
+      <c r="N93" s="43"/>
+      <c r="O93" s="43"/>
     </row>
     <row r="94" spans="1:15" ht="15.6">
-      <c r="A94" s="48"/>
-      <c r="B94" s="48"/>
-      <c r="C94" s="49"/>
-      <c r="D94" s="49"/>
-      <c r="E94" s="49"/>
-      <c r="F94" s="49"/>
-      <c r="G94" s="49"/>
-      <c r="H94" s="49"/>
-      <c r="I94" s="50"/>
-      <c r="J94" s="51"/>
-      <c r="K94" s="51"/>
-      <c r="L94" s="52"/>
-      <c r="M94" s="50"/>
-      <c r="N94" s="49"/>
-      <c r="O94" s="49"/>
+      <c r="A94" s="42"/>
+      <c r="B94" s="42"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="43"/>
+      <c r="E94" s="43"/>
+      <c r="F94" s="43"/>
+      <c r="G94" s="43"/>
+      <c r="H94" s="43"/>
+      <c r="I94" s="44"/>
+      <c r="J94" s="45"/>
+      <c r="K94" s="45"/>
+      <c r="L94" s="46"/>
+      <c r="M94" s="44"/>
+      <c r="N94" s="43"/>
+      <c r="O94" s="43"/>
     </row>
     <row r="96" spans="1:15" ht="15.6">
-      <c r="C96" s="42" t="s">
+      <c r="C96" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="D96" s="43"/>
+      <c r="D96" s="48"/>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
@@ -10947,73 +11436,73 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
@@ -11021,57 +11510,57 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -11090,8 +11579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O43"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -12373,141 +12862,141 @@
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="47"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="47"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
+      <c r="A36" s="52"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="47"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="47"/>
+      <c r="A37" s="52"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="52"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="47"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="47"/>
-      <c r="L38" s="47"/>
-      <c r="M38" s="47"/>
+      <c r="A38" s="52"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="52"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="47"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="47"/>
+      <c r="A39" s="52"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="47"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="47"/>
+      <c r="A40" s="52"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="47"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
+      <c r="A41" s="52"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="47"/>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="47"/>
-      <c r="L42" s="47"/>
-      <c r="M42" s="47"/>
+      <c r="A42" s="52"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="47"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="47"/>
-      <c r="K43" s="47"/>
-      <c r="L43" s="47"/>
-      <c r="M43" s="47"/>
+      <c r="A43" s="52"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Synthèse-Experiences/Hole_Size_Dosev3.xlsx
+++ b/Synthèse-Experiences/Hole_Size_Dosev3.xlsx
@@ -295,7 +295,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,6 +391,13 @@
       <b/>
       <sz val="36"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -585,7 +592,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -721,6 +728,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1991,6 +2001,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2108,11 +2119,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="212788736"/>
-        <c:axId val="212790272"/>
+        <c:axId val="213706240"/>
+        <c:axId val="213707776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="212788736"/>
+        <c:axId val="213706240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2122,12 +2133,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212790272"/>
+        <c:crossAx val="213707776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="212790272"/>
+        <c:axId val="213707776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2138,13 +2149,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212788736"/>
+        <c:crossAx val="213706240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2197,6 +2209,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2314,11 +2327,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213825024"/>
-        <c:axId val="213826560"/>
+        <c:axId val="214746624"/>
+        <c:axId val="214748160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213825024"/>
+        <c:axId val="214746624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2"/>
@@ -2329,12 +2342,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213826560"/>
+        <c:crossAx val="214748160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213826560"/>
+        <c:axId val="214748160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2345,13 +2358,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213825024"/>
+        <c:crossAx val="214746624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2602,11 +2616,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213859328"/>
-        <c:axId val="213869696"/>
+        <c:axId val="214776832"/>
+        <c:axId val="214787200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213859328"/>
+        <c:axId val="214776832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2635,12 +2649,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213869696"/>
+        <c:crossAx val="214787200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213869696"/>
+        <c:axId val="214787200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2677,7 +2691,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213859328"/>
+        <c:crossAx val="214776832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2838,11 +2852,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213903232"/>
-        <c:axId val="214175744"/>
+        <c:axId val="214822912"/>
+        <c:axId val="214824832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213903232"/>
+        <c:axId val="214822912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2871,12 +2885,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214175744"/>
+        <c:crossAx val="214824832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="214175744"/>
+        <c:axId val="214824832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -2908,7 +2922,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213903232"/>
+        <c:crossAx val="214822912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3100,7 +3114,7 @@
                   <c:v>64.77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62.53</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>71.459999999999994</c:v>
@@ -3438,11 +3452,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="214308736"/>
-        <c:axId val="214310912"/>
+        <c:axId val="215229952"/>
+        <c:axId val="215231872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="214308736"/>
+        <c:axId val="215229952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.2"/>
@@ -3477,12 +3491,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214310912"/>
+        <c:crossAx val="215231872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="214310912"/>
+        <c:axId val="215231872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="40"/>
@@ -3513,7 +3527,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214308736"/>
+        <c:crossAx val="215229952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3559,14 +3573,9 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Effect of dose on the pore</a:t>
+              <a:rPr lang="fr-FR" sz="2400"/>
+              <a:t>Influence of dose on a 30nm-thin membrane</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR" baseline="0"/>
-              <a:t> size</a:t>
-            </a:r>
-            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3580,10 +3589,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.0328282757705874E-2"/>
-          <c:y val="8.0302676254971159E-2"/>
-          <c:w val="0.73244776806723633"/>
-          <c:h val="0.83141900344647002"/>
+          <c:x val="8.3389071597411296E-2"/>
+          <c:y val="9.5028233025754028E-2"/>
+          <c:w val="0.70938699302835551"/>
+          <c:h val="0.81669346170559709"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3593,7 +3602,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>79 Loop 200</c:v>
+            <c:v>200 Loops</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575">
@@ -3649,7 +3658,7 @@
                   <c:v>64.77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62.53</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>71.459999999999994</c:v>
@@ -3669,77 +3678,10 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>78 Loop 2</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Feuil2!$I$65:$I$70</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.48</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.72</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.84</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Feuil2!$K$65:$K$70</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>60.29</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64.760000000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>66.60499999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>75.92</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>83.740000000000009</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>92.66</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>77 Loop 20</c:v>
+            <c:v>20 Loops</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575">
@@ -3803,10 +3745,10 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="1"/>
+          <c:order val="2"/>
           <c:tx>
-            <c:v>76 Loop 20</c:v>
+            <c:v>2 Loops</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575">
@@ -3815,72 +3757,54 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil2!$I$77:$I$85</c:f>
+              <c:f>Feuil2!$I$65:$I$70</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.24</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27999999999999997</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32000000000000006</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.36000000000000004</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.44000000000000006</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.48</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.55999999999999994</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil2!$K$77:$K$85</c:f>
+              <c:f>Feuil2!$K$65:$K$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>40.19</c:v>
+                  <c:v>60.29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49.125</c:v>
+                  <c:v>64.760000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55.83</c:v>
+                  <c:v>66.60499999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59.174999999999997</c:v>
+                  <c:v>75.92</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61.405000000000001</c:v>
+                  <c:v>83.740000000000009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65.875</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>69.22</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>72.574999999999989</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>75.924999999999997</c:v>
+                  <c:v>92.66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3895,11 +3819,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="190245504"/>
-        <c:axId val="221840128"/>
+        <c:axId val="215329408"/>
+        <c:axId val="215339776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="190245504"/>
+        <c:axId val="215329408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.2"/>
@@ -3934,12 +3858,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221840128"/>
+        <c:crossAx val="215339776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="221840128"/>
+        <c:axId val="215339776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="40"/>
@@ -3970,14 +3894,23 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190245504"/>
+        <c:crossAx val="215329408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.83116155266758585"/>
+          <c:y val="0.25781624319167884"/>
+          <c:w val="0.12949944510964825"/>
+          <c:h val="0.3310498609316222"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4116,16 +4049,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>731933</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>98611</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>5957</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1629</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>450917</xdr:colOff>
+      <xdr:colOff>450919</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>77479</xdr:rowOff>
+      <xdr:rowOff>186686</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4149,8 +4082,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14622104" y="294554"/>
-          <a:ext cx="5135715" cy="6277855"/>
+          <a:off x="13403302" y="403411"/>
+          <a:ext cx="5127799" cy="6213413"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4341,16 +4274,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>351805</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>82632</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>601187</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>41068</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>510639</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>86096</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>150421</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>72241</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4486,16 +4419,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>595744</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180108</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>312716</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180109</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>422069</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>169717</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>139040</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>169718</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6326,10 +6259,10 @@
   <dimension ref="A1:V129"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="H57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O99" sqref="O99"/>
+      <selection pane="bottomRight" activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -9297,9 +9230,8 @@
         <v>0.6</v>
       </c>
       <c r="J60" s="38"/>
-      <c r="K60" s="38">
-        <f>(64.76+60.3)/2</f>
-        <v>62.53</v>
+      <c r="K60" s="53">
+        <v>66</v>
       </c>
       <c r="L60" s="39">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
@@ -11579,8 +11511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>

--- a/Synthèse-Experiences/Hole_Size_Dosev3.xlsx
+++ b/Synthèse-Experiences/Hole_Size_Dosev3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="72">
   <si>
     <t>backside</t>
   </si>
@@ -712,6 +712,9 @@
     <xf numFmtId="2" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -728,9 +731,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2024,11 +2024,49 @@
           <c:xVal>
             <c:numRef>
               <c:f>Feuil2!$I$8:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>Feuil2!$L$8:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44927536231884058</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -2056,11 +2094,49 @@
           <c:xVal>
             <c:numRef>
               <c:f>Feuil2!$I$8:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>Feuil2!$L$13:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.28446771378708546</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30948678071539665</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23006134969325151</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30315500685871055</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -2079,11 +2155,49 @@
           <c:xVal>
             <c:numRef>
               <c:f>Feuil2!$I$8:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>Feuil2!$L$26:$L$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.24510932105868818</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.153558052434457</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11898734177215196</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1484272216242076</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1001206272617612</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -2102,11 +2216,49 @@
           <c:xVal>
             <c:numRef>
               <c:f>Feuil2!$I$8:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>Feuil2!$L$36:$L$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.11594202898550721</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -2119,11 +2271,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213706240"/>
-        <c:axId val="213707776"/>
+        <c:axId val="215340544"/>
+        <c:axId val="215342080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213706240"/>
+        <c:axId val="215340544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2133,12 +2285,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213707776"/>
+        <c:crossAx val="215342080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213707776"/>
+        <c:axId val="215342080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2149,7 +2301,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213706240"/>
+        <c:crossAx val="215340544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2232,11 +2384,49 @@
           <c:xVal>
             <c:numRef>
               <c:f>Feuil2!$I$8:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>Feuil2!$M$8:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -2264,11 +2454,49 @@
           <c:xVal>
             <c:numRef>
               <c:f>Feuil2!$I$8:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>Feuil2!$M$13:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.55706521739130443</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52731591448931114</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62593516209476308</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53473684210526318</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -2287,11 +2515,49 @@
           <c:xVal>
             <c:numRef>
               <c:f>Feuil2!$I$8:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>Feuil2!$M$26:$M$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.60628465804066534</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73376623376623373</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78733031674208132</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74151218496146643</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81798245614035081</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -2310,11 +2576,49 @@
           <c:xVal>
             <c:numRef>
               <c:f>Feuil2!$I$8:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>Feuil2!$M$36:$M$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.79220779220779225</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -2327,11 +2631,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="214746624"/>
-        <c:axId val="214748160"/>
+        <c:axId val="216385024"/>
+        <c:axId val="216386560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="214746624"/>
+        <c:axId val="216385024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2"/>
@@ -2342,12 +2646,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214748160"/>
+        <c:crossAx val="216386560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="214748160"/>
+        <c:axId val="216386560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2358,7 +2662,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214746624"/>
+        <c:crossAx val="216385024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2431,7 +2735,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil2!$B$98:$B$101</c:f>
+              <c:f>Feuil2!$B$99:$B$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2449,7 +2753,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil2!$F$98:$F$101</c:f>
+              <c:f>Feuil2!$F$99:$F$102</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2503,7 +2807,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil2!$B$98:$B$101</c:f>
+              <c:f>Feuil2!$B$99:$B$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2521,7 +2825,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil2!$F$102:$F$104</c:f>
+              <c:f>Feuil2!$F$103:$F$105</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2575,7 +2879,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil2!$B$98:$B$101</c:f>
+              <c:f>Feuil2!$B$99:$B$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2593,7 +2897,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil2!$F$106:$F$108</c:f>
+              <c:f>Feuil2!$F$107:$F$109</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2616,11 +2920,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="214776832"/>
-        <c:axId val="214787200"/>
+        <c:axId val="216415232"/>
+        <c:axId val="216433792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="214776832"/>
+        <c:axId val="216415232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2649,12 +2953,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214787200"/>
+        <c:crossAx val="216433792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="214787200"/>
+        <c:axId val="216433792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2691,7 +2995,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214776832"/>
+        <c:crossAx val="216415232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2766,11 +3070,37 @@
           <c:xVal>
             <c:numRef>
               <c:f>Feuil2!$I$41:$I$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>Feuil2!$K$41:$K$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>59.94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.97999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.540000000000006</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -2789,11 +3119,55 @@
           <c:xVal>
             <c:numRef>
               <c:f>(Feuil2!$I$44,Feuil2!$I$46,Feuil2!$I$48,Feuil2!$I$49,Feuil2!$I$50,Feuil2!$I$51)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55999999999999994</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>(Feuil2!$K$44,Feuil2!$K$46,Feuil2!$K$48,Feuil2!$K$49,Feuil2!$K$50,Feuil2!$K$51)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.77</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67.599999999999994</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -2812,11 +3186,37 @@
           <c:xVal>
             <c:numRef>
               <c:f>(Feuil2!$I$47,Feuil2!$I$52,Feuil2!$I$53)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>(Feuil2!$K$47,Feuil2!$K$53,Feuil2!$K$52)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>55.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.8</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -2835,11 +3235,37 @@
           <c:xVal>
             <c:numRef>
               <c:f>Feuil2!$I$54:$I$56</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>Feuil2!$K$54:$K$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>39.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.400000000000006</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -2852,11 +3278,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="214822912"/>
-        <c:axId val="214824832"/>
+        <c:axId val="216727552"/>
+        <c:axId val="216729472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="214822912"/>
+        <c:axId val="216727552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2885,12 +3311,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214824832"/>
+        <c:crossAx val="216729472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="214824832"/>
+        <c:axId val="216729472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -2922,7 +3348,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214822912"/>
+        <c:crossAx val="216727552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3067,7 +3493,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil2!$I$57:$I$64</c:f>
+              <c:f>Feuil2!$I$58:$I$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3100,7 +3526,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil2!$K$57:$K$64</c:f>
+              <c:f>Feuil2!$K$58:$K$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3178,7 +3604,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil2!$I$65:$I$70</c:f>
+              <c:f>Feuil2!$I$66:$I$71</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3205,7 +3631,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil2!$K$65:$K$70</c:f>
+              <c:f>Feuil2!$K$66:$K$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3276,7 +3702,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil2!$I$71:$I$76</c:f>
+              <c:f>Feuil2!$I$72:$I$77</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3303,7 +3729,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil2!$K$71:$K$76</c:f>
+              <c:f>Feuil2!$K$72:$K$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3372,7 +3798,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil2!$I$77:$I$85</c:f>
+              <c:f>Feuil2!$I$78:$I$86</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3408,7 +3834,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil2!$K$77:$K$85</c:f>
+              <c:f>Feuil2!$K$78:$K$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3452,11 +3878,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="215229952"/>
-        <c:axId val="215231872"/>
+        <c:axId val="216870912"/>
+        <c:axId val="216872832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="215229952"/>
+        <c:axId val="216870912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.2"/>
@@ -3491,12 +3917,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215231872"/>
+        <c:crossAx val="216872832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="215231872"/>
+        <c:axId val="216872832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="40"/>
@@ -3527,7 +3953,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215229952"/>
+        <c:crossAx val="216870912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3574,7 +4000,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR" sz="2400"/>
-              <a:t>Influence of dose on a 30nm-thin membrane</a:t>
+              <a:t>Influence of dose and loops on a 30nm-thin membrane</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3611,32 +4037,35 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil2!$I$57:$I$64</c:f>
+              <c:f>Feuil2!$I$57:$I$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.42</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.48</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.54</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.66</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.72</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.78</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.84</c:v>
                 </c:pt>
               </c:numCache>
@@ -3644,32 +4073,35 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil2!$K$57:$K$64</c:f>
+              <c:f>Feuil2!$K$57:$K$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>58.06</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>64.77</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>71.459999999999994</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>76.779999999999987</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>80.509999999999991</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>81.504999999999995</c:v>
                 </c:pt>
               </c:numCache>
@@ -3690,7 +4122,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil2!$I$71:$I$76</c:f>
+              <c:f>Feuil2!$I$72:$I$77</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3717,7 +4149,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil2!$K$71:$K$76</c:f>
+              <c:f>Feuil2!$K$72:$K$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3757,7 +4189,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil2!$I$65:$I$70</c:f>
+              <c:f>Feuil2!$I$66:$I$71</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3784,7 +4216,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil2!$K$65:$K$70</c:f>
+              <c:f>Feuil2!$K$66:$K$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3819,11 +4251,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="215329408"/>
-        <c:axId val="215339776"/>
+        <c:axId val="216965504"/>
+        <c:axId val="216967424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="215329408"/>
+        <c:axId val="216965504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.2"/>
@@ -3858,15 +4290,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215339776"/>
+        <c:crossAx val="216967424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="215339776"/>
+        <c:axId val="216967424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3894,7 +4325,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215329408"/>
+        <c:crossAx val="216965504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3912,6 +4343,16 @@
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600"/>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -4057,8 +4498,8 @@
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>450919</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>186686</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>188315</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4106,13 +4547,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>726141</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>80682</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>681318</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>116541</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4136,13 +4577,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>735103</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>80681</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>53333</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4191,13 +4632,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>303521</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>180576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>93490</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>24334</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4221,13 +4662,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>261257</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>130629</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>147666</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>174172</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4276,13 +4717,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>601187</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>41068</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>150421</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>72241</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4312,8 +4753,8 @@
     <xdr:to>
       <xdr:col>60</xdr:col>
       <xdr:colOff>498765</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>28861</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>125843</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4453,14 +4894,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A2:O89" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
-  <autoFilter ref="A2:O89">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Raith"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A2:O90" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
+  <autoFilter ref="A2:O90"/>
   <sortState ref="A44:O51">
     <sortCondition ref="I2:I56"/>
   </sortState>
@@ -4492,8 +4927,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A97:G109" totalsRowShown="0">
-  <autoFilter ref="A97:G109">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A98:G110" totalsRowShown="0">
+  <autoFilter ref="A98:G110">
     <filterColumn colId="0">
       <filters>
         <filter val="77"/>
@@ -4831,10 +5266,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.6">
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:16" ht="16.2" thickBot="1">
       <c r="A2" s="5" t="s">
@@ -6256,13 +6691,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V129"/>
+  <dimension ref="A1:V130"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="H57" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I57" sqref="I57"/>
+      <selection pane="bottomRight" activeCell="AA39" sqref="AA39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -6285,10 +6720,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6">
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="48"/>
+      <c r="K1" s="49"/>
       <c r="L1" s="19" t="s">
         <v>21</v>
       </c>
@@ -6340,7 +6775,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16.2" hidden="1" thickTop="1">
+    <row r="3" spans="1:15" ht="16.2" thickTop="1">
       <c r="A3" s="1">
         <v>31</v>
       </c>
@@ -6390,7 +6825,7 @@
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="16.2" hidden="1" thickTop="1">
+    <row r="4" spans="1:15" ht="15.6">
       <c r="A4" s="1">
         <v>31</v>
       </c>
@@ -6440,7 +6875,7 @@
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="16.2" hidden="1" thickTop="1">
+    <row r="5" spans="1:15" ht="15.6">
       <c r="A5" s="1">
         <v>31</v>
       </c>
@@ -6490,7 +6925,7 @@
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="16.2" hidden="1" thickTop="1">
+    <row r="6" spans="1:15" ht="15.6">
       <c r="A6" s="1">
         <v>32</v>
       </c>
@@ -6540,7 +6975,7 @@
         <v>0.59699999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="16.2" hidden="1" thickTop="1">
+    <row r="7" spans="1:15" ht="15.6">
       <c r="A7" s="1">
         <v>32</v>
       </c>
@@ -6590,7 +7025,7 @@
         <v>0.59699999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="16.2" hidden="1" thickTop="1">
+    <row r="8" spans="1:15" ht="15.6">
       <c r="A8" s="1">
         <v>32</v>
       </c>
@@ -6640,7 +7075,7 @@
         <v>0.59699999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="16.2" hidden="1" thickTop="1">
+    <row r="9" spans="1:15" ht="15.6">
       <c r="A9" s="1">
         <v>32</v>
       </c>
@@ -6690,7 +7125,7 @@
         <v>0.59699999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="16.2" hidden="1" thickTop="1">
+    <row r="10" spans="1:15" ht="15.6">
       <c r="A10" s="1">
         <v>32</v>
       </c>
@@ -6740,7 +7175,7 @@
         <v>0.59699999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="16.2" hidden="1" thickTop="1">
+    <row r="11" spans="1:15" ht="15.6">
       <c r="A11" s="1">
         <v>31</v>
       </c>
@@ -6790,7 +7225,7 @@
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="16.2" hidden="1" thickTop="1">
+    <row r="12" spans="1:15" ht="15.6">
       <c r="A12" s="1">
         <v>31</v>
       </c>
@@ -6840,7 +7275,7 @@
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="16.2" hidden="1" thickTop="1">
+    <row r="13" spans="1:15" ht="15.6">
       <c r="A13" s="3">
         <v>33</v>
       </c>
@@ -6890,7 +7325,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="16.2" hidden="1" thickTop="1">
+    <row r="14" spans="1:15" ht="15.6">
       <c r="A14" s="3">
         <v>33</v>
       </c>
@@ -6940,7 +7375,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="16.2" hidden="1" thickTop="1">
+    <row r="15" spans="1:15" ht="15.6">
       <c r="A15" s="3">
         <v>33</v>
       </c>
@@ -6988,7 +7423,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="16.2" hidden="1" thickTop="1">
+    <row r="16" spans="1:15" ht="15.6">
       <c r="A16" s="3">
         <v>33</v>
       </c>
@@ -7038,7 +7473,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" hidden="1" customHeight="1">
+    <row r="17" spans="1:16" ht="15" customHeight="1">
       <c r="A17" s="1">
         <v>33</v>
       </c>
@@ -7088,7 +7523,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="16.2" hidden="1" thickTop="1">
+    <row r="18" spans="1:16" ht="15.6">
       <c r="A18" s="1">
         <v>33</v>
       </c>
@@ -7141,7 +7576,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="16.2" hidden="1" thickTop="1">
+    <row r="19" spans="1:16" ht="15.6">
       <c r="A19" s="1">
         <v>34</v>
       </c>
@@ -7191,7 +7626,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="16.2" hidden="1" thickTop="1">
+    <row r="20" spans="1:16" ht="15.6">
       <c r="A20" s="1">
         <v>34</v>
       </c>
@@ -7241,7 +7676,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="16.2" hidden="1" thickTop="1">
+    <row r="21" spans="1:16" ht="15.6">
       <c r="A21" s="1">
         <v>33</v>
       </c>
@@ -7289,7 +7724,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="16.2" hidden="1" thickTop="1">
+    <row r="22" spans="1:16" ht="15.6">
       <c r="A22" s="1">
         <v>33</v>
       </c>
@@ -7339,7 +7774,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="16.2" hidden="1" thickTop="1">
+    <row r="23" spans="1:16" ht="15.6">
       <c r="A23" s="1">
         <v>34</v>
       </c>
@@ -7389,7 +7824,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="16.2" hidden="1" thickTop="1">
+    <row r="24" spans="1:16" ht="15.6">
       <c r="A24" s="1">
         <v>33</v>
       </c>
@@ -7439,7 +7874,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="16.2" hidden="1" thickTop="1">
+    <row r="25" spans="1:16" ht="15.6">
       <c r="A25" s="3">
         <v>31</v>
       </c>
@@ -7487,7 +7922,7 @@
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="16.2" hidden="1" thickTop="1">
+    <row r="26" spans="1:16" ht="15.6">
       <c r="A26" s="3">
         <v>33</v>
       </c>
@@ -7537,7 +7972,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="16.2" hidden="1" thickTop="1">
+    <row r="27" spans="1:16" ht="15.6">
       <c r="A27" s="3">
         <v>34</v>
       </c>
@@ -7587,7 +8022,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="16.2" hidden="1" thickTop="1">
+    <row r="28" spans="1:16" ht="15.6">
       <c r="A28" s="3">
         <v>34</v>
       </c>
@@ -7637,7 +8072,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="16.2" hidden="1" thickTop="1">
+    <row r="29" spans="1:16" ht="15.6">
       <c r="A29" s="1">
         <v>33</v>
       </c>
@@ -7687,7 +8122,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="16.2" hidden="1" thickTop="1">
+    <row r="30" spans="1:16" ht="15.6">
       <c r="A30" s="1">
         <v>34</v>
       </c>
@@ -7737,7 +8172,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="16.2" hidden="1" thickTop="1">
+    <row r="31" spans="1:16" ht="15.6">
       <c r="A31" s="1">
         <v>34</v>
       </c>
@@ -7787,7 +8222,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="16.2" hidden="1" thickTop="1">
+    <row r="32" spans="1:16" ht="15.6">
       <c r="A32" s="1">
         <v>34</v>
       </c>
@@ -7837,7 +8272,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="16.2" hidden="1" thickTop="1">
+    <row r="33" spans="1:22" ht="15.6">
       <c r="A33" s="1">
         <v>34</v>
       </c>
@@ -7887,7 +8322,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="16.2" hidden="1" thickTop="1">
+    <row r="34" spans="1:22" ht="15.6">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -7937,7 +8372,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="16.2" hidden="1" thickTop="1">
+    <row r="35" spans="1:22" ht="15.6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -7984,17 +8419,17 @@
       <c r="O35" s="14">
         <v>0.45800000000000002</v>
       </c>
-      <c r="P35" s="49" t="s">
+      <c r="P35" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="Q35" s="49"/>
-      <c r="R35" s="49"/>
-      <c r="S35" s="49"/>
-      <c r="T35" s="49"/>
-      <c r="U35" s="49"/>
-      <c r="V35" s="49"/>
-    </row>
-    <row r="36" spans="1:22" ht="16.2" hidden="1" thickTop="1">
+      <c r="Q35" s="50"/>
+      <c r="R35" s="50"/>
+      <c r="S35" s="50"/>
+      <c r="T35" s="50"/>
+      <c r="U35" s="50"/>
+      <c r="V35" s="50"/>
+    </row>
+    <row r="36" spans="1:22" ht="15.6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -8044,7 +8479,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="16.2" hidden="1" thickTop="1">
+    <row r="37" spans="1:22" ht="15.6">
       <c r="A37" s="3">
         <v>31</v>
       </c>
@@ -8092,7 +8527,7 @@
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="16.2" hidden="1" thickTop="1">
+    <row r="38" spans="1:22" ht="15.6">
       <c r="A38" s="3">
         <v>31</v>
       </c>
@@ -8140,7 +8575,7 @@
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="16.2" hidden="1" thickTop="1">
+    <row r="39" spans="1:22" ht="15.6">
       <c r="A39" s="3">
         <v>31</v>
       </c>
@@ -8188,7 +8623,7 @@
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="16.2" hidden="1" thickTop="1">
+    <row r="40" spans="1:22" ht="15.6">
       <c r="A40" s="3">
         <v>31</v>
       </c>
@@ -8236,7 +8671,7 @@
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="16.2" hidden="1" thickTop="1">
+    <row r="41" spans="1:22" ht="15.6">
       <c r="A41" s="1">
         <v>78</v>
       </c>
@@ -8289,7 +8724,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="16.2" hidden="1" thickTop="1">
+    <row r="42" spans="1:22" ht="15.6">
       <c r="A42" s="1">
         <v>78</v>
       </c>
@@ -8344,7 +8779,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="16.2" hidden="1" thickTop="1">
+    <row r="43" spans="1:22" ht="15.6">
       <c r="A43" s="1">
         <v>78</v>
       </c>
@@ -8397,7 +8832,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="16.2" hidden="1" thickTop="1">
+    <row r="44" spans="1:22" ht="15.6">
       <c r="A44" s="1">
         <v>76</v>
       </c>
@@ -8450,7 +8885,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="16.2" hidden="1" thickTop="1">
+    <row r="45" spans="1:22" ht="15.6">
       <c r="A45" s="1">
         <v>76</v>
       </c>
@@ -8500,7 +8935,7 @@
         <v>6.3520000000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="16.2" hidden="1" thickTop="1">
+    <row r="46" spans="1:22" ht="15.6">
       <c r="A46" s="1">
         <v>76</v>
       </c>
@@ -8550,7 +8985,7 @@
         <v>6.3520000000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="16.2" hidden="1" thickTop="1">
+    <row r="47" spans="1:22" ht="15.6">
       <c r="A47" s="1">
         <v>77</v>
       </c>
@@ -8600,7 +9035,7 @@
         <v>6.24</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="16.2" hidden="1" thickTop="1">
+    <row r="48" spans="1:22" ht="15.6">
       <c r="A48" s="1">
         <v>76</v>
       </c>
@@ -8650,7 +9085,7 @@
         <v>6.3520000000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="16.2" hidden="1" thickTop="1">
+    <row r="49" spans="1:17" ht="15.6">
       <c r="A49" s="1">
         <v>76</v>
       </c>
@@ -8704,7 +9139,7 @@
         <v>59.724850000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="16.2" hidden="1" thickTop="1">
+    <row r="50" spans="1:17" ht="15.6">
       <c r="A50" s="1">
         <v>76</v>
       </c>
@@ -8754,7 +9189,7 @@
         <v>6.3520000000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="16.2" hidden="1" thickTop="1">
+    <row r="51" spans="1:17" ht="15.6">
       <c r="A51" s="1">
         <v>76</v>
       </c>
@@ -8804,7 +9239,7 @@
         <v>6.3520000000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="16.2" hidden="1" thickTop="1">
+    <row r="52" spans="1:17" ht="15.6">
       <c r="A52" s="3">
         <v>77</v>
       </c>
@@ -8854,7 +9289,7 @@
         <v>6.24</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="16.2" hidden="1" thickTop="1">
+    <row r="53" spans="1:17" ht="15.6">
       <c r="A53" s="3">
         <v>77</v>
       </c>
@@ -8904,7 +9339,7 @@
         <v>6.24</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="16.2" hidden="1" thickTop="1">
+    <row r="54" spans="1:17" ht="15.6">
       <c r="A54" s="1">
         <v>79</v>
       </c>
@@ -8954,7 +9389,7 @@
         <v>6.26</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="16.2" hidden="1" thickTop="1">
+    <row r="55" spans="1:17" ht="15.6">
       <c r="A55" s="1">
         <v>79</v>
       </c>
@@ -9004,7 +9439,7 @@
         <v>6.26</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="16.2" hidden="1" thickTop="1">
+    <row r="56" spans="1:17" ht="15.6">
       <c r="A56" s="22">
         <v>79</v>
       </c>
@@ -9055,7 +9490,7 @@
         <v>6.26</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="16.2" thickTop="1">
+    <row r="57" spans="1:17" ht="15.6">
       <c r="A57" s="22">
         <v>79</v>
       </c>
@@ -9069,7 +9504,7 @@
         <v>66</v>
       </c>
       <c r="E57" s="40">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="F57" s="40">
         <v>0.6</v>
@@ -9082,16 +9517,15 @@
       </c>
       <c r="I57" s="37">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
       <c r="J57" s="23"/>
       <c r="K57" s="23">
-        <f>(49.1+46.9)/2</f>
-        <v>48</v>
-      </c>
-      <c r="L57" s="39">
+        <v>0</v>
+      </c>
+      <c r="L57" s="39" t="e">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M57" s="37" t="e">
         <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
@@ -9105,7 +9539,7 @@
       </c>
     </row>
     <row r="58" spans="1:17" ht="15.6">
-      <c r="A58" s="36">
+      <c r="A58" s="22">
         <v>79</v>
       </c>
       <c r="B58" s="22">
@@ -9117,8 +9551,8 @@
       <c r="D58" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="E58" s="26">
-        <v>0.8</v>
+      <c r="E58" s="40">
+        <v>0.7</v>
       </c>
       <c r="F58" s="40">
         <v>0.6</v>
@@ -9131,11 +9565,12 @@
       </c>
       <c r="I58" s="37">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0.48</v>
-      </c>
-      <c r="J58" s="38"/>
-      <c r="K58" s="38">
-        <v>58.06</v>
+        <v>0.42</v>
+      </c>
+      <c r="J58" s="23"/>
+      <c r="K58" s="23">
+        <f>(49.1+46.9)/2</f>
+        <v>48</v>
       </c>
       <c r="L58" s="39">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
@@ -9166,7 +9601,7 @@
         <v>66</v>
       </c>
       <c r="E59" s="26">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F59" s="40">
         <v>0.6</v>
@@ -9179,11 +9614,11 @@
       </c>
       <c r="I59" s="37">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
       <c r="J59" s="38"/>
       <c r="K59" s="38">
-        <v>64.77</v>
+        <v>58.06</v>
       </c>
       <c r="L59" s="39">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
@@ -9214,7 +9649,7 @@
         <v>66</v>
       </c>
       <c r="E60" s="26">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="F60" s="40">
         <v>0.6</v>
@@ -9227,11 +9662,11 @@
       </c>
       <c r="I60" s="37">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="J60" s="38"/>
-      <c r="K60" s="53">
-        <v>66</v>
+      <c r="K60" s="38">
+        <v>64.77</v>
       </c>
       <c r="L60" s="39">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
@@ -9262,7 +9697,7 @@
         <v>66</v>
       </c>
       <c r="E61" s="26">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="F61" s="40">
         <v>0.6</v>
@@ -9275,11 +9710,11 @@
       </c>
       <c r="I61" s="37">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0.66</v>
+        <v>0.6</v>
       </c>
       <c r="J61" s="38"/>
-      <c r="K61" s="38">
-        <v>71.459999999999994</v>
+      <c r="K61" s="47">
+        <v>66</v>
       </c>
       <c r="L61" s="39">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
@@ -9310,7 +9745,7 @@
         <v>66</v>
       </c>
       <c r="E62" s="26">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F62" s="40">
         <v>0.6</v>
@@ -9323,12 +9758,11 @@
       </c>
       <c r="I62" s="37">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0.72</v>
+        <v>0.66</v>
       </c>
       <c r="J62" s="38"/>
       <c r="K62" s="38">
-        <f>(2*78.27+73.8)/3</f>
-        <v>76.779999999999987</v>
+        <v>71.459999999999994</v>
       </c>
       <c r="L62" s="39">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
@@ -9359,7 +9793,7 @@
         <v>66</v>
       </c>
       <c r="E63" s="26">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F63" s="40">
         <v>0.6</v>
@@ -9372,12 +9806,12 @@
       </c>
       <c r="I63" s="37">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0.78</v>
+        <v>0.72</v>
       </c>
       <c r="J63" s="38"/>
       <c r="K63" s="38">
-        <f>(78.27+82.75)/2</f>
-        <v>80.509999999999991</v>
+        <f>(2*78.27+73.8)/3</f>
+        <v>76.779999999999987</v>
       </c>
       <c r="L63" s="39">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
@@ -9408,7 +9842,7 @@
         <v>66</v>
       </c>
       <c r="E64" s="26">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="F64" s="40">
         <v>0.6</v>
@@ -9421,12 +9855,12 @@
       </c>
       <c r="I64" s="37">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0.84</v>
+        <v>0.78</v>
       </c>
       <c r="J64" s="38"/>
       <c r="K64" s="38">
-        <f>(80.39+82.62)/2</f>
-        <v>81.504999999999995</v>
+        <f>(78.27+82.75)/2</f>
+        <v>80.509999999999991</v>
       </c>
       <c r="L64" s="39">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
@@ -9444,10 +9878,10 @@
       </c>
     </row>
     <row r="65" spans="1:15" ht="15.6">
-      <c r="A65" s="1">
-        <v>78</v>
-      </c>
-      <c r="B65" s="1">
+      <c r="A65" s="36">
+        <v>79</v>
+      </c>
+      <c r="B65" s="22">
         <v>35</v>
       </c>
       <c r="C65" s="4" t="s">
@@ -9456,39 +9890,40 @@
       <c r="D65" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="26">
+        <v>1.4</v>
+      </c>
+      <c r="F65" s="40">
         <v>0.6</v>
       </c>
-      <c r="F65" s="12">
-        <v>0.6</v>
-      </c>
-      <c r="G65" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H65" s="12">
-        <v>2</v>
-      </c>
-      <c r="I65" s="16">
+      <c r="G65" s="40">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H65" s="40">
+        <v>200</v>
+      </c>
+      <c r="I65" s="37">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0.36</v>
-      </c>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8">
-        <v>60.29</v>
-      </c>
-      <c r="L65" s="16">
+        <v>0.84</v>
+      </c>
+      <c r="J65" s="38"/>
+      <c r="K65" s="38">
+        <f>(80.39+82.62)/2</f>
+        <v>81.504999999999995</v>
+      </c>
+      <c r="L65" s="39">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>-1</v>
       </c>
-      <c r="M65" s="4" t="e">
+      <c r="M65" s="37" t="e">
         <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N65" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="O65" s="14">
-        <v>6.33</v>
+      <c r="O65" s="27">
+        <v>6.26</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="15.6">
@@ -9505,7 +9940,7 @@
         <v>66</v>
       </c>
       <c r="E66" s="2">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="F66" s="12">
         <v>0.6</v>
@@ -9518,11 +9953,11 @@
       </c>
       <c r="I66" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
       <c r="J66" s="8"/>
       <c r="K66" s="8">
-        <v>64.760000000000005</v>
+        <v>60.29</v>
       </c>
       <c r="L66" s="16">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
@@ -9553,7 +9988,7 @@
         <v>66</v>
       </c>
       <c r="E67" s="2">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F67" s="12">
         <v>0.6</v>
@@ -9566,12 +10001,11 @@
       </c>
       <c r="I67" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0.48</v>
+        <v>0.42</v>
       </c>
       <c r="J67" s="8"/>
       <c r="K67" s="8">
-        <f>(66.99+66.22)/2</f>
-        <v>66.60499999999999</v>
+        <v>64.760000000000005</v>
       </c>
       <c r="L67" s="16">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
@@ -9602,7 +10036,7 @@
         <v>66</v>
       </c>
       <c r="E68" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F68" s="12">
         <v>0.6</v>
@@ -9615,11 +10049,12 @@
       </c>
       <c r="I68" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0.6</v>
+        <v>0.48</v>
       </c>
       <c r="J68" s="8"/>
       <c r="K68" s="8">
-        <v>75.92</v>
+        <f>(66.99+66.22)/2</f>
+        <v>66.60499999999999</v>
       </c>
       <c r="L68" s="16">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
@@ -9650,7 +10085,7 @@
         <v>66</v>
       </c>
       <c r="E69" s="2">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="F69" s="12">
         <v>0.6</v>
@@ -9663,12 +10098,11 @@
       </c>
       <c r="I69" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0.72</v>
+        <v>0.6</v>
       </c>
       <c r="J69" s="8"/>
       <c r="K69" s="8">
-        <f>(82.62+84.86)/2</f>
-        <v>83.740000000000009</v>
+        <v>75.92</v>
       </c>
       <c r="L69" s="16">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
@@ -9699,7 +10133,7 @@
         <v>66</v>
       </c>
       <c r="E70" s="2">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="F70" s="12">
         <v>0.6</v>
@@ -9712,12 +10146,12 @@
       </c>
       <c r="I70" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0.84</v>
+        <v>0.72</v>
       </c>
       <c r="J70" s="8"/>
       <c r="K70" s="8">
-        <f>(89.32+96)/2</f>
-        <v>92.66</v>
+        <f>(82.62+84.86)/2</f>
+        <v>83.740000000000009</v>
       </c>
       <c r="L70" s="16">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
@@ -9736,7 +10170,7 @@
     </row>
     <row r="71" spans="1:15" ht="15.6">
       <c r="A71" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B71" s="1">
         <v>35</v>
@@ -9744,29 +10178,29 @@
       <c r="C71" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="40" t="s">
         <v>66</v>
       </c>
       <c r="E71" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="F71" s="12">
         <v>0.6</v>
       </c>
-      <c r="F71" s="8">
-        <v>0.6</v>
-      </c>
       <c r="G71" s="2">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="H71" s="12">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I71" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0.36</v>
+        <v>0.84</v>
       </c>
       <c r="J71" s="8"/>
       <c r="K71" s="8">
-        <f>(58.06+55.83)/2</f>
-        <v>56.945</v>
+        <f>(89.32+96)/2</f>
+        <v>92.66</v>
       </c>
       <c r="L71" s="16">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
@@ -9780,7 +10214,7 @@
         <v>31</v>
       </c>
       <c r="O71" s="14">
-        <v>6.24</v>
+        <v>6.33</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="15.6">
@@ -9797,7 +10231,7 @@
         <v>66</v>
       </c>
       <c r="E72" s="2">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="F72" s="8">
         <v>0.6</v>
@@ -9810,12 +10244,12 @@
       </c>
       <c r="I72" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
       <c r="J72" s="8"/>
       <c r="K72" s="8">
-        <f>(62.52+60.29)/2</f>
-        <v>61.405000000000001</v>
+        <f>(58.06+55.83)/2</f>
+        <v>56.945</v>
       </c>
       <c r="L72" s="16">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
@@ -9846,7 +10280,7 @@
         <v>66</v>
       </c>
       <c r="E73" s="2">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F73" s="8">
         <v>0.6</v>
@@ -9859,12 +10293,12 @@
       </c>
       <c r="I73" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0.48</v>
+        <v>0.42</v>
       </c>
       <c r="J73" s="8"/>
       <c r="K73" s="8">
-        <f>(66.99+62.52)/2</f>
-        <v>64.754999999999995</v>
+        <f>(62.52+60.29)/2</f>
+        <v>61.405000000000001</v>
       </c>
       <c r="L73" s="16">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
@@ -9895,7 +10329,7 @@
         <v>66</v>
       </c>
       <c r="E74" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F74" s="8">
         <v>0.6</v>
@@ -9908,12 +10342,12 @@
       </c>
       <c r="I74" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0.6</v>
+        <v>0.48</v>
       </c>
       <c r="J74" s="8"/>
       <c r="K74" s="8">
-        <f>(75.92+71.46)/2</f>
-        <v>73.69</v>
+        <f>(66.99+62.52)/2</f>
+        <v>64.754999999999995</v>
       </c>
       <c r="L74" s="16">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
@@ -9944,7 +10378,7 @@
         <v>66</v>
       </c>
       <c r="E75" s="2">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="F75" s="8">
         <v>0.6</v>
@@ -9957,11 +10391,12 @@
       </c>
       <c r="I75" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0.72</v>
+        <v>0.6</v>
       </c>
       <c r="J75" s="8"/>
       <c r="K75" s="8">
-        <v>82.62</v>
+        <f>(75.92+71.46)/2</f>
+        <v>73.69</v>
       </c>
       <c r="L75" s="16">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
@@ -9992,7 +10427,7 @@
         <v>66</v>
       </c>
       <c r="E76" s="2">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="F76" s="8">
         <v>0.6</v>
@@ -10005,11 +10440,11 @@
       </c>
       <c r="I76" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0.84</v>
+        <v>0.72</v>
       </c>
       <c r="J76" s="8"/>
       <c r="K76" s="8">
-        <v>87.09</v>
+        <v>82.62</v>
       </c>
       <c r="L76" s="16">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
@@ -10028,7 +10463,7 @@
     </row>
     <row r="77" spans="1:15" ht="15.6">
       <c r="A77" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77" s="1">
         <v>35</v>
@@ -10039,11 +10474,11 @@
       <c r="D77" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E77" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="F77" s="8">
         <v>0.6</v>
-      </c>
-      <c r="F77" s="8">
-        <v>0.4</v>
       </c>
       <c r="G77" s="2">
         <v>0.05</v>
@@ -10053,11 +10488,11 @@
       </c>
       <c r="I77" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0.24</v>
+        <v>0.84</v>
       </c>
       <c r="J77" s="8"/>
       <c r="K77" s="8">
-        <v>40.19</v>
+        <v>87.09</v>
       </c>
       <c r="L77" s="16">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
@@ -10071,7 +10506,7 @@
         <v>31</v>
       </c>
       <c r="O77" s="14">
-        <v>6.3520000000000003</v>
+        <v>6.24</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="15.6">
@@ -10088,7 +10523,7 @@
         <v>66</v>
       </c>
       <c r="E78" s="4">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="F78" s="8">
         <v>0.4</v>
@@ -10101,12 +10536,11 @@
       </c>
       <c r="I78" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0.27999999999999997</v>
+        <v>0.24</v>
       </c>
       <c r="J78" s="8"/>
       <c r="K78" s="8">
-        <f>(46.89+51.36)/2</f>
-        <v>49.125</v>
+        <v>40.19</v>
       </c>
       <c r="L78" s="16">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
@@ -10137,7 +10571,7 @@
         <v>66</v>
       </c>
       <c r="E79" s="4">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F79" s="8">
         <v>0.4</v>
@@ -10150,11 +10584,12 @@
       </c>
       <c r="I79" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0.32000000000000006</v>
+        <v>0.27999999999999997</v>
       </c>
       <c r="J79" s="8"/>
       <c r="K79" s="8">
-        <v>55.83</v>
+        <f>(46.89+51.36)/2</f>
+        <v>49.125</v>
       </c>
       <c r="L79" s="16">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
@@ -10185,7 +10620,7 @@
         <v>66</v>
       </c>
       <c r="E80" s="4">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F80" s="8">
         <v>0.4</v>
@@ -10198,12 +10633,11 @@
       </c>
       <c r="I80" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0.36000000000000004</v>
+        <v>0.32000000000000006</v>
       </c>
       <c r="J80" s="8"/>
       <c r="K80" s="8">
-        <f>(60.29+58.06)/2</f>
-        <v>59.174999999999997</v>
+        <v>55.83</v>
       </c>
       <c r="L80" s="16">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
@@ -10234,7 +10668,7 @@
         <v>66</v>
       </c>
       <c r="E81" s="4">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="F81" s="8">
         <v>0.4</v>
@@ -10247,12 +10681,12 @@
       </c>
       <c r="I81" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0.4</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="J81" s="8"/>
       <c r="K81" s="8">
-        <f>(60.29+62.52)/2</f>
-        <v>61.405000000000001</v>
+        <f>(60.29+58.06)/2</f>
+        <v>59.174999999999997</v>
       </c>
       <c r="L81" s="16">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
@@ -10283,7 +10717,7 @@
         <v>66</v>
       </c>
       <c r="E82" s="4">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="F82" s="8">
         <v>0.4</v>
@@ -10296,12 +10730,12 @@
       </c>
       <c r="I82" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0.44000000000000006</v>
+        <v>0.4</v>
       </c>
       <c r="J82" s="8"/>
       <c r="K82" s="8">
-        <f>(64.76+66.99)/2</f>
-        <v>65.875</v>
+        <f>(60.29+62.52)/2</f>
+        <v>61.405000000000001</v>
       </c>
       <c r="L82" s="16">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
@@ -10332,7 +10766,7 @@
         <v>66</v>
       </c>
       <c r="E83" s="4">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F83" s="8">
         <v>0.4</v>
@@ -10345,11 +10779,12 @@
       </c>
       <c r="I83" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0.48</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="J83" s="8"/>
       <c r="K83" s="8">
-        <v>69.22</v>
+        <f>(64.76+66.99)/2</f>
+        <v>65.875</v>
       </c>
       <c r="L83" s="16">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
@@ -10380,7 +10815,7 @@
         <v>66</v>
       </c>
       <c r="E84" s="4">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F84" s="8">
         <v>0.4</v>
@@ -10393,12 +10828,11 @@
       </c>
       <c r="I84" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
       <c r="J84" s="8"/>
       <c r="K84" s="8">
-        <f>(71.46+73.69)/2</f>
-        <v>72.574999999999989</v>
+        <v>69.22</v>
       </c>
       <c r="L84" s="16">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
@@ -10429,7 +10863,7 @@
         <v>66</v>
       </c>
       <c r="E85" s="4">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="F85" s="8">
         <v>0.4</v>
@@ -10442,12 +10876,12 @@
       </c>
       <c r="I85" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0.55999999999999994</v>
+        <v>0.52</v>
       </c>
       <c r="J85" s="8"/>
       <c r="K85" s="8">
-        <f>(78.16+73.69)/2</f>
-        <v>75.924999999999997</v>
+        <f>(71.46+73.69)/2</f>
+        <v>72.574999999999989</v>
       </c>
       <c r="L85" s="16">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
@@ -10464,33 +10898,56 @@
         <v>6.3520000000000003</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="15.6" hidden="1">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="12"/>
+    <row r="86" spans="1:15" ht="15.6">
+      <c r="A86" s="1">
+        <v>76</v>
+      </c>
+      <c r="B86" s="1">
+        <v>35</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E86" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="F86" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="G86" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H86" s="12">
+        <v>20</v>
+      </c>
       <c r="I86" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0</v>
-      </c>
-      <c r="J86" s="12"/>
-      <c r="K86" s="12"/>
-      <c r="L86" s="16" t="e">
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="J86" s="8"/>
+      <c r="K86" s="8">
+        <f>(78.16+73.69)/2</f>
+        <v>75.924999999999997</v>
+      </c>
+      <c r="L86" s="16">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
       <c r="M86" s="4" t="e">
         <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N86" s="41"/>
-      <c r="O86" s="13"/>
-    </row>
-    <row r="87" spans="1:15" ht="15.6" hidden="1">
+      <c r="N86" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O86" s="14">
+        <v>6.3520000000000003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="15.6">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="4"/>
@@ -10516,36 +10973,34 @@
       <c r="N87" s="41"/>
       <c r="O87" s="13"/>
     </row>
-    <row r="88" spans="1:15" ht="15.6" hidden="1">
-      <c r="A88" s="36"/>
-      <c r="B88" s="36"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="26"/>
-      <c r="G88" s="26"/>
-      <c r="H88" s="26"/>
-      <c r="I88" s="37">
+    <row r="88" spans="1:15" ht="15.6">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>0</v>
       </c>
-      <c r="J88" s="38"/>
-      <c r="K88" s="38"/>
-      <c r="L88" s="39" t="e">
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="16" t="e">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M88" s="37" t="e">
+      <c r="M88" s="4" t="e">
         <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N88" s="26"/>
-      <c r="O88" s="27"/>
-    </row>
-    <row r="89" spans="1:15" ht="15.6" hidden="1">
-      <c r="A89" s="36">
-        <v>79</v>
-      </c>
+      <c r="N88" s="41"/>
+      <c r="O88" s="13"/>
+    </row>
+    <row r="89" spans="1:15" ht="15.6">
+      <c r="A89" s="36"/>
       <c r="B89" s="36"/>
       <c r="C89" s="26"/>
       <c r="D89" s="26"/>
@@ -10571,21 +11026,32 @@
       <c r="O89" s="27"/>
     </row>
     <row r="90" spans="1:15" ht="15.6">
-      <c r="A90" s="42"/>
-      <c r="B90" s="42"/>
-      <c r="C90" s="43"/>
-      <c r="D90" s="43"/>
-      <c r="E90" s="43"/>
-      <c r="F90" s="43"/>
-      <c r="G90" s="43"/>
-      <c r="H90" s="43"/>
-      <c r="I90" s="44"/>
-      <c r="J90" s="45"/>
-      <c r="K90" s="45"/>
-      <c r="L90" s="46"/>
-      <c r="M90" s="44"/>
-      <c r="N90" s="43"/>
-      <c r="O90" s="43"/>
+      <c r="A90" s="36">
+        <v>79</v>
+      </c>
+      <c r="B90" s="36"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="26"/>
+      <c r="H90" s="26"/>
+      <c r="I90" s="37">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0</v>
+      </c>
+      <c r="J90" s="38"/>
+      <c r="K90" s="38"/>
+      <c r="L90" s="39" t="e">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M90" s="37" t="e">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N90" s="26"/>
+      <c r="O90" s="27"/>
     </row>
     <row r="91" spans="1:15" ht="15.6">
       <c r="A91" s="42"/>
@@ -10655,58 +11121,50 @@
       <c r="N94" s="43"/>
       <c r="O94" s="43"/>
     </row>
-    <row r="96" spans="1:15" ht="15.6">
-      <c r="C96" s="47" t="s">
+    <row r="95" spans="1:15" ht="15.6">
+      <c r="A95" s="42"/>
+      <c r="B95" s="42"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="43"/>
+      <c r="E95" s="43"/>
+      <c r="F95" s="43"/>
+      <c r="G95" s="43"/>
+      <c r="H95" s="43"/>
+      <c r="I95" s="44"/>
+      <c r="J95" s="45"/>
+      <c r="K95" s="45"/>
+      <c r="L95" s="46"/>
+      <c r="M95" s="44"/>
+      <c r="N95" s="43"/>
+      <c r="O95" s="43"/>
+    </row>
+    <row r="97" spans="1:7" ht="15.6">
+      <c r="C97" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="D96" s="48"/>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" t="s">
+      <c r="D97" s="49"/>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
         <v>50</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B98" t="s">
         <v>55</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C98" t="s">
         <v>56</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D98" t="s">
         <v>57</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E98" t="s">
         <v>52</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F98" t="s">
         <v>53</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G98" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98">
-        <v>77</v>
-      </c>
-      <c r="B98">
-        <v>0.36</v>
-      </c>
-      <c r="C98">
-        <v>57.5</v>
-      </c>
-      <c r="D98">
-        <v>55.2</v>
-      </c>
-      <c r="E98" s="32">
-        <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
-        <v>2.0408163265306097E-2</v>
-      </c>
-      <c r="F98" s="32">
-        <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
-        <v>0.96000000000000008</v>
-      </c>
-      <c r="G98">
-        <v>6.24</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -10714,101 +11172,101 @@
         <v>77</v>
       </c>
       <c r="B99">
-        <v>0.6</v>
+        <v>0.36</v>
       </c>
       <c r="C99">
-        <v>65.5</v>
+        <v>57.5</v>
       </c>
       <c r="D99">
-        <v>75.8</v>
+        <v>55.2</v>
       </c>
       <c r="E99" s="32">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
-        <v>-7.2894550601556946E-2</v>
+        <v>2.0408163265306097E-2</v>
       </c>
       <c r="F99" s="32">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
-        <v>1.1572519083969466</v>
+        <v>0.96000000000000008</v>
       </c>
       <c r="G99">
         <v>6.24</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1">
+    <row r="100" spans="1:7">
       <c r="A100">
+        <v>77</v>
+      </c>
+      <c r="B100">
+        <v>0.6</v>
+      </c>
+      <c r="C100">
+        <v>65.5</v>
+      </c>
+      <c r="D100">
+        <v>75.8</v>
+      </c>
+      <c r="E100" s="32">
+        <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
+        <v>-7.2894550601556946E-2</v>
+      </c>
+      <c r="F100" s="32">
+        <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
+        <v>1.1572519083969466</v>
+      </c>
+      <c r="G100">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" hidden="1">
+      <c r="A101">
         <v>76</v>
       </c>
-      <c r="B100">
+      <c r="B101">
         <v>0.24</v>
       </c>
-      <c r="C100">
+      <c r="C101">
         <f>AVERAGE(J43:J44)</f>
         <v>59.945000000000007</v>
       </c>
-      <c r="D100">
+      <c r="D101">
         <f>AVERAGE(K43:K44)</f>
         <v>64.27000000000001</v>
       </c>
-      <c r="E100" s="32">
+      <c r="E101" s="32">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>-3.4818661192287582E-2</v>
       </c>
-      <c r="F100" s="32">
+      <c r="F101" s="32">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>1.0721494703478189</v>
       </c>
-      <c r="G100">
+      <c r="G101">
         <v>6.3520000000000003</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
-      <c r="A101">
+    <row r="102" spans="1:7">
+      <c r="A102">
         <v>77</v>
       </c>
-      <c r="B101">
+      <c r="B102">
         <v>0.84</v>
       </c>
-      <c r="C101">
+      <c r="C102">
         <v>66.5</v>
       </c>
-      <c r="D101">
+      <c r="D102">
         <v>85</v>
       </c>
-      <c r="E101" s="32">
+      <c r="E102" s="32">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>-0.12211221122112212</v>
       </c>
-      <c r="F101" s="32">
+      <c r="F102" s="32">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>1.2781954887218046</v>
       </c>
-      <c r="G101">
+      <c r="G102">
         <v>6.24</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102">
-        <v>78</v>
-      </c>
-      <c r="B102">
-        <v>0.36</v>
-      </c>
-      <c r="C102">
-        <v>62.95</v>
-      </c>
-      <c r="D102">
-        <v>59.94</v>
-      </c>
-      <c r="E102" s="32">
-        <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
-        <v>2.4493449426316261E-2</v>
-      </c>
-      <c r="F102" s="32">
-        <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
-        <v>0.95218427323272425</v>
-      </c>
-      <c r="G102">
-        <v>6.33</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -10816,21 +11274,21 @@
         <v>78</v>
       </c>
       <c r="B103">
-        <v>0.6</v>
+        <v>0.36</v>
       </c>
       <c r="C103">
-        <v>71.150000000000006</v>
+        <v>62.95</v>
       </c>
       <c r="D103">
-        <v>76.97999999999999</v>
+        <v>59.94</v>
       </c>
       <c r="E103" s="32">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
-        <v>-3.9357321271855698E-2</v>
+        <v>2.4493449426316261E-2</v>
       </c>
       <c r="F103" s="32">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
-        <v>1.0819395643007728</v>
+        <v>0.95218427323272425</v>
       </c>
       <c r="G103">
         <v>6.33</v>
@@ -10841,128 +11299,128 @@
         <v>78</v>
       </c>
       <c r="B104">
-        <v>0.84</v>
+        <v>0.6</v>
       </c>
       <c r="C104">
-        <v>70.040000000000006</v>
+        <v>71.150000000000006</v>
       </c>
       <c r="D104">
-        <v>79.540000000000006</v>
+        <v>76.97999999999999</v>
       </c>
       <c r="E104" s="32">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
-        <v>-6.3511164594197075E-2</v>
+        <v>-3.9357321271855698E-2</v>
       </c>
       <c r="F104" s="32">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
-        <v>1.1356367789834381</v>
+        <v>1.0819395643007728</v>
       </c>
       <c r="G104">
         <v>6.33</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1">
+    <row r="105" spans="1:7">
       <c r="A105">
+        <v>78</v>
+      </c>
+      <c r="B105">
+        <v>0.84</v>
+      </c>
+      <c r="C105">
+        <v>70.040000000000006</v>
+      </c>
+      <c r="D105">
+        <v>79.540000000000006</v>
+      </c>
+      <c r="E105" s="32">
+        <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
+        <v>-6.3511164594197075E-2</v>
+      </c>
+      <c r="F105" s="32">
+        <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
+        <v>1.1356367789834381</v>
+      </c>
+      <c r="G105">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" hidden="1">
+      <c r="A106">
         <v>76</v>
       </c>
-      <c r="B105">
+      <c r="B106">
         <v>0.4</v>
       </c>
-      <c r="C105">
+      <c r="C106">
         <f>AVERAGE(J49:J50)</f>
         <v>58.1</v>
       </c>
-      <c r="D105">
+      <c r="D106">
         <f>AVERAGE(K49:K50)</f>
         <v>66.784999999999997</v>
       </c>
-      <c r="E105" s="32">
+      <c r="E106" s="32">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>-6.9543980462025035E-2</v>
       </c>
-      <c r="F105" s="32">
+      <c r="F106" s="32">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>1.1494836488812392</v>
       </c>
-      <c r="G105">
+      <c r="G106">
         <v>6.3520000000000003</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
-      <c r="A106">
+    <row r="107" spans="1:7">
+      <c r="A107">
         <v>79</v>
       </c>
-      <c r="B106">
+      <c r="B107">
         <v>0.6</v>
       </c>
-      <c r="C106">
+      <c r="C107">
         <v>61.17</v>
       </c>
-      <c r="D106">
+      <c r="D107">
         <v>63.26</v>
       </c>
-      <c r="E106" s="32">
+      <c r="E107" s="32">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>-1.679659246162498E-2</v>
       </c>
-      <c r="F106" s="32">
+      <c r="F107" s="32">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>1.0341670753637404</v>
       </c>
-      <c r="G106">
+      <c r="G107">
         <v>6.26</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1">
-      <c r="A107">
+    <row r="108" spans="1:7" hidden="1">
+      <c r="A108">
         <v>76</v>
       </c>
-      <c r="B107">
+      <c r="B108">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C107">
+      <c r="C108">
         <f>AVERAGE(J53:J54)</f>
         <v>33.25</v>
       </c>
-      <c r="D107">
+      <c r="D108">
         <f>AVERAGE(K53:K54)</f>
         <v>62.2</v>
       </c>
-      <c r="E107" s="32">
+      <c r="E108" s="32">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>-0.30330015715034053</v>
       </c>
-      <c r="F107" s="32">
+      <c r="F108" s="32">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>1.8706766917293234</v>
       </c>
-      <c r="G107">
+      <c r="G108">
         <v>6.3520000000000003</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108">
-        <v>79</v>
-      </c>
-      <c r="B108">
-        <v>0.84</v>
-      </c>
-      <c r="C108">
-        <v>62.239999999999995</v>
-      </c>
-      <c r="D108">
-        <v>65.400000000000006</v>
-      </c>
-      <c r="E108" s="32">
-        <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
-        <v>-2.4757129426512151E-2</v>
-      </c>
-      <c r="F108" s="32">
-        <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
-        <v>1.0507712082262213</v>
-      </c>
-      <c r="G108">
-        <v>6.26</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -10970,112 +11428,114 @@
         <v>79</v>
       </c>
       <c r="B109">
-        <v>0.36</v>
+        <v>0.84</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>62.239999999999995</v>
       </c>
       <c r="D109">
-        <v>39.4</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="E109" s="32">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
+        <v>-2.4757129426512151E-2</v>
+      </c>
+      <c r="F109" s="32">
+        <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
+        <v>1.0507712082262213</v>
+      </c>
+      <c r="G109">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110">
+        <v>79</v>
+      </c>
+      <c r="B110">
+        <v>0.36</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>39.4</v>
+      </c>
+      <c r="E110" s="32">
+        <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>-1</v>
       </c>
-      <c r="F109" s="32" t="e">
+      <c r="F110" s="32" t="e">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G109">
+      <c r="G110">
         <v>6.26</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
-      <c r="D112" s="21"/>
-      <c r="E112" s="21" t="s">
+    <row r="113" spans="1:9">
+      <c r="D113" s="21"/>
+      <c r="E113" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="F112" s="21"/>
-    </row>
-    <row r="113" spans="1:9">
-      <c r="D113" s="21">
-        <v>77</v>
-      </c>
-      <c r="E113" s="21">
-        <v>0.66290000000000004</v>
       </c>
       <c r="F113" s="21"/>
     </row>
     <row r="114" spans="1:9">
       <c r="D114" s="21">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E114" s="21">
-        <v>0.38219999999999998</v>
+        <v>0.66290000000000004</v>
       </c>
       <c r="F114" s="21"/>
     </row>
     <row r="115" spans="1:9">
       <c r="D115" s="21">
+        <v>78</v>
+      </c>
+      <c r="E115" s="21">
+        <v>0.38219999999999998</v>
+      </c>
+      <c r="F115" s="21"/>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="D116" s="21">
         <v>79</v>
       </c>
-      <c r="E115" s="21">
+      <c r="E116" s="21">
         <v>6.9199999999999998E-2</v>
       </c>
-      <c r="F115" s="21"/>
-      <c r="I115" t="s">
+      <c r="F116" s="21"/>
+      <c r="I116" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
-      <c r="C116" t="s">
+    <row r="117" spans="1:9">
+      <c r="C117" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
-      <c r="A117" t="s">
+    <row r="118" spans="1:9">
+      <c r="A118" t="s">
         <v>50</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B118" t="s">
         <v>55</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C118" t="s">
         <v>56</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D118" t="s">
         <v>57</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E118" t="s">
         <v>52</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F118" t="s">
         <v>53</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G118" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
-      <c r="A118">
-        <v>77</v>
-      </c>
-      <c r="B118">
-        <v>0.36</v>
-      </c>
-      <c r="C118">
-        <v>57.5</v>
-      </c>
-      <c r="D118">
-        <v>55.2</v>
-      </c>
-      <c r="E118">
-        <v>2.0408163265306097E-2</v>
-      </c>
-      <c r="F118">
-        <v>0.96000000000000008</v>
-      </c>
-      <c r="G118">
-        <v>6.24</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -11083,19 +11543,19 @@
         <v>77</v>
       </c>
       <c r="B119">
-        <v>0.6</v>
+        <v>0.36</v>
       </c>
       <c r="C119">
-        <v>65.5</v>
+        <v>57.5</v>
       </c>
       <c r="D119">
-        <v>75.8</v>
+        <v>55.2</v>
       </c>
       <c r="E119">
-        <v>-7.2894550601556946E-2</v>
+        <v>2.0408163265306097E-2</v>
       </c>
       <c r="F119">
-        <v>1.1572519083969466</v>
+        <v>0.96000000000000008</v>
       </c>
       <c r="G119">
         <v>6.24</v>
@@ -11103,71 +11563,71 @@
     </row>
     <row r="120" spans="1:9">
       <c r="A120">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B120">
-        <v>0.24</v>
+        <v>0.6</v>
       </c>
       <c r="C120">
-        <v>55.9</v>
+        <v>65.5</v>
       </c>
       <c r="D120">
-        <v>64.984999999999999</v>
+        <v>75.8</v>
       </c>
       <c r="E120">
-        <v>-7.515407205195021E-2</v>
+        <v>-7.2894550601556946E-2</v>
       </c>
       <c r="F120">
-        <v>1.1625223613595708</v>
+        <v>1.1572519083969466</v>
       </c>
       <c r="G120">
-        <v>6.3520000000000003</v>
+        <v>6.24</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B121">
-        <v>0.84</v>
+        <v>0.24</v>
       </c>
       <c r="C121">
-        <v>66.5</v>
+        <v>55.9</v>
       </c>
       <c r="D121">
-        <v>85</v>
+        <v>64.984999999999999</v>
       </c>
       <c r="E121">
-        <v>-0.12211221122112212</v>
+        <v>-7.515407205195021E-2</v>
       </c>
       <c r="F121">
-        <v>1.2781954887218046</v>
+        <v>1.1625223613595708</v>
       </c>
       <c r="G121">
-        <v>6.24</v>
+        <v>6.3520000000000003</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B122">
-        <v>0.36</v>
+        <v>0.84</v>
       </c>
       <c r="C122">
-        <v>62.95</v>
+        <v>66.5</v>
       </c>
       <c r="D122">
-        <v>59.94</v>
+        <v>85</v>
       </c>
       <c r="E122">
-        <v>2.4493449426316261E-2</v>
+        <v>-0.12211221122112212</v>
       </c>
       <c r="F122">
-        <v>0.95218427323272425</v>
+        <v>1.2781954887218046</v>
       </c>
       <c r="G122">
-        <v>6.33</v>
+        <v>6.24</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -11175,19 +11635,19 @@
         <v>78</v>
       </c>
       <c r="B123">
-        <v>0.6</v>
+        <v>0.36</v>
       </c>
       <c r="C123">
-        <v>71.150000000000006</v>
+        <v>62.95</v>
       </c>
       <c r="D123">
-        <v>76.97999999999999</v>
+        <v>59.94</v>
       </c>
       <c r="E123">
-        <v>-3.9357321271855698E-2</v>
+        <v>2.4493449426316261E-2</v>
       </c>
       <c r="F123">
-        <v>1.0819395643007728</v>
+        <v>0.95218427323272425</v>
       </c>
       <c r="G123">
         <v>6.33</v>
@@ -11198,19 +11658,19 @@
         <v>78</v>
       </c>
       <c r="B124">
-        <v>0.84</v>
+        <v>0.6</v>
       </c>
       <c r="C124">
-        <v>70.040000000000006</v>
+        <v>71.150000000000006</v>
       </c>
       <c r="D124">
-        <v>79.540000000000006</v>
+        <v>76.97999999999999</v>
       </c>
       <c r="E124">
-        <v>-6.3511164594197075E-2</v>
+        <v>-3.9357321271855698E-2</v>
       </c>
       <c r="F124">
-        <v>1.1356367789834381</v>
+        <v>1.0819395643007728</v>
       </c>
       <c r="G124">
         <v>6.33</v>
@@ -11218,94 +11678,94 @@
     </row>
     <row r="125" spans="1:9">
       <c r="A125">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B125">
-        <v>0.4</v>
+        <v>0.84</v>
       </c>
       <c r="C125">
-        <v>66</v>
+        <v>70.040000000000006</v>
       </c>
       <c r="D125">
-        <v>80.400000000000006</v>
+        <v>79.540000000000006</v>
       </c>
       <c r="E125">
-        <v>-9.8360655737704958E-2</v>
+        <v>-6.3511164594197075E-2</v>
       </c>
       <c r="F125">
-        <v>1.2181818181818183</v>
+        <v>1.1356367789834381</v>
       </c>
       <c r="G125">
-        <v>6.3520000000000003</v>
+        <v>6.33</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B126">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="C126">
-        <v>61.17</v>
+        <v>66</v>
       </c>
       <c r="D126">
-        <v>63.26</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="E126">
-        <v>-1.679659246162498E-2</v>
+        <v>-9.8360655737704958E-2</v>
       </c>
       <c r="F126">
-        <v>1.0341670753637404</v>
+        <v>1.2181818181818183</v>
       </c>
       <c r="G126">
-        <v>6.26</v>
+        <v>6.3520000000000003</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B127">
-        <v>0.56000000000000005</v>
+        <v>0.6</v>
       </c>
       <c r="C127">
-        <v>35.020000000000003</v>
+        <v>61.17</v>
       </c>
       <c r="D127">
-        <v>59.47</v>
+        <v>63.26</v>
       </c>
       <c r="E127">
-        <v>-0.25875754048047406</v>
+        <v>-1.679659246162498E-2</v>
       </c>
       <c r="F127">
-        <v>1.6981724728726439</v>
+        <v>1.0341670753637404</v>
       </c>
       <c r="G127">
-        <v>6.3520000000000003</v>
+        <v>6.26</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B128">
-        <v>0.84</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C128">
-        <v>62.239999999999995</v>
+        <v>35.020000000000003</v>
       </c>
       <c r="D128">
-        <v>65.400000000000006</v>
+        <v>59.47</v>
       </c>
       <c r="E128">
-        <v>-2.4757129426512151E-2</v>
+        <v>-0.25875754048047406</v>
       </c>
       <c r="F128">
-        <v>1.0507712082262213</v>
+        <v>1.6981724728726439</v>
       </c>
       <c r="G128">
-        <v>6.26</v>
+        <v>6.3520000000000003</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -11313,21 +11773,44 @@
         <v>79</v>
       </c>
       <c r="B129">
+        <v>0.84</v>
+      </c>
+      <c r="C129">
+        <v>62.239999999999995</v>
+      </c>
+      <c r="D129">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="E129">
+        <v>-2.4757129426512151E-2</v>
+      </c>
+      <c r="F129">
+        <v>1.0507712082262213</v>
+      </c>
+      <c r="G129">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130">
+        <v>79</v>
+      </c>
+      <c r="B130">
         <v>0.36</v>
       </c>
-      <c r="C129">
+      <c r="C130">
         <v>0</v>
       </c>
-      <c r="D129">
+      <c r="D130">
         <v>39.4</v>
       </c>
-      <c r="E129">
+      <c r="E130">
         <v>-1</v>
       </c>
-      <c r="F129" t="e">
+      <c r="F130" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="G129">
+      <c r="G130">
         <v>6.26</v>
       </c>
     </row>
@@ -11335,7 +11818,7 @@
   <mergeCells count="3">
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="P35:V35"/>
-    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11368,73 +11851,73 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
@@ -11442,57 +11925,57 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="50"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="50"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -11511,8 +11994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -12793,142 +13276,150 @@
         <v>6.3520000000000003</v>
       </c>
     </row>
+    <row r="32" spans="1:15">
+      <c r="I32">
+        <v>0.36</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="51" t="s">
+      <c r="A35" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="52"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="52"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="52"/>
-      <c r="M37" s="52"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="52"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="52"/>
-      <c r="M38" s="52"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="53"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="52"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="52"/>
+      <c r="A39" s="53"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="52"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
+      <c r="A40" s="53"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="53"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="52"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="52"/>
-      <c r="M41" s="52"/>
+      <c r="A41" s="53"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="52"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="52"/>
+      <c r="A42" s="53"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="53"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="52"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="52"/>
-      <c r="L43" s="52"/>
-      <c r="M43" s="52"/>
+      <c r="A43" s="53"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="53"/>
+      <c r="M43" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="1">
